--- a/ProyectoFinal/05 Poblacion/dueno.xlsx
+++ b/ProyectoFinal/05 Poblacion/dueno.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1381">
-  <si>
-    <t>CURP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="1081">
   <si>
     <t>fNacimiento</t>
   </si>
@@ -3264,911 +3261,14 @@
     <t>Tambling</t>
   </si>
   <si>
-    <t>S0PY0CU2KL6YRQLZY7</t>
-  </si>
-  <si>
-    <t>X16V5AQ25SJ71BHO31</t>
-  </si>
-  <si>
-    <t>6LQWGRMY7NSN623K5C</t>
-  </si>
-  <si>
-    <t>JW5QCRI48JOPPRR37Z</t>
-  </si>
-  <si>
-    <t>E0E9J3M5RMD54123DG</t>
-  </si>
-  <si>
-    <t>BR1BRR4JNKT9ZGC5HS</t>
-  </si>
-  <si>
-    <t>Y1JTMMMWVZ5SONYLT0</t>
-  </si>
-  <si>
-    <t>K8Y05BZODG3TUIK6JY</t>
-  </si>
-  <si>
-    <t>WD9768W4C0SZKQI51K</t>
-  </si>
-  <si>
-    <t>VKMIZ1LOCP6PDQ3FEC</t>
-  </si>
-  <si>
-    <t>I1Z2L6QGXQAZPLSBXC</t>
-  </si>
-  <si>
-    <t>C6V5RYO3TWS4CG1JDR</t>
-  </si>
-  <si>
-    <t>CKBPEYY382NYF37PLY</t>
-  </si>
-  <si>
-    <t>KTY9E2FP3BWZ2WBX0X</t>
-  </si>
-  <si>
-    <t>ZIX5OWED27CE917TOB</t>
-  </si>
-  <si>
-    <t>JGMPEN53XZ8LJ90GOO</t>
-  </si>
-  <si>
-    <t>PLH1O8VU4IS4KG4MPZ</t>
-  </si>
-  <si>
-    <t>C1HWEH0PPKFGDS6OYJ</t>
-  </si>
-  <si>
-    <t>4G6P2RM93NK5P817HO</t>
-  </si>
-  <si>
-    <t>X0EK4VV9NTGC38I78R</t>
-  </si>
-  <si>
-    <t>UNXAFKH2LCW88JPDOP</t>
-  </si>
-  <si>
-    <t>56FF6SMQ00EWZ3LFY8</t>
-  </si>
-  <si>
-    <t>4Q5IE2NBSY7KOWBEI0</t>
-  </si>
-  <si>
-    <t>8FEWTAWY2MEK5O3VSO</t>
-  </si>
-  <si>
-    <t>NNVSG87SYPIR74ZLBL</t>
-  </si>
-  <si>
-    <t>Z25HDDJSN91SNJ8S43</t>
-  </si>
-  <si>
-    <t>PQV0SMRQS0KMZ95Y9N</t>
-  </si>
-  <si>
-    <t>0LL64RGWCX7CT1FYRM</t>
-  </si>
-  <si>
-    <t>IF42AX2190XMNJAOGM</t>
-  </si>
-  <si>
-    <t>AKM3SGCXTG9V07J3TA</t>
-  </si>
-  <si>
-    <t>U96HFYQ7BU0VXMUIAW</t>
-  </si>
-  <si>
-    <t>PPUE5NG4FGJZC8AEK6</t>
-  </si>
-  <si>
-    <t>YBZUQCZXDN2BXF18IS</t>
-  </si>
-  <si>
-    <t>78ZYC20F4T7B4ALY6V</t>
-  </si>
-  <si>
-    <t>NQKJ633EDFG0ORYJTQ</t>
-  </si>
-  <si>
-    <t>QE3BL1LD3J1OJ0OS5V</t>
-  </si>
-  <si>
-    <t>YZG6UIQZ1IAEUYE1NM</t>
-  </si>
-  <si>
-    <t>5YFKMF1M3XBRTO8BXC</t>
-  </si>
-  <si>
-    <t>0UYORFGWOJD0PUZ3BW</t>
-  </si>
-  <si>
-    <t>5PUZUNKIHDBHI2R1JZ</t>
-  </si>
-  <si>
-    <t>6TK2EZ09UQ22ECGSLR</t>
-  </si>
-  <si>
-    <t>AWLRZCO7SJKDFVFYEC</t>
-  </si>
-  <si>
-    <t>FL24MYM01OIVSJ8AVH</t>
-  </si>
-  <si>
-    <t>HWG0B8QT5NR8G47T3E</t>
-  </si>
-  <si>
-    <t>OD2WOV26IYRCXRH58E</t>
-  </si>
-  <si>
-    <t>NPJQXQTFGO8TVGOZW9</t>
-  </si>
-  <si>
-    <t>4AR5NFEYMFYGQK1JC8</t>
-  </si>
-  <si>
-    <t>4ADOW02X271J3J5ACQ</t>
-  </si>
-  <si>
-    <t>L6OJ4EM2LK6N6PSAFF</t>
-  </si>
-  <si>
-    <t>HRGML12GBZK1KI54A2</t>
-  </si>
-  <si>
-    <t>1V3LF1694H19W7KIGM</t>
-  </si>
-  <si>
-    <t>E90DPWWEISABCCHK36</t>
-  </si>
-  <si>
-    <t>XVZAFNHWSNN01HTUCY</t>
-  </si>
-  <si>
-    <t>KXQAHP0KHRYHXXFPGG</t>
-  </si>
-  <si>
-    <t>4U67JMENXT36WTWJG3</t>
-  </si>
-  <si>
-    <t>O2HCZRD6GU2N06IHYX</t>
-  </si>
-  <si>
-    <t>XHNNTBLGBGQYM7HJLL</t>
-  </si>
-  <si>
-    <t>E0RCK5XNWAIRR9IYWS</t>
-  </si>
-  <si>
-    <t>QZPIGE6JORAKAGXIK0</t>
-  </si>
-  <si>
-    <t>XMVVBBMHE7TNJC79Z7</t>
-  </si>
-  <si>
-    <t>YH3JAZ8XDA0BPBS3ML</t>
-  </si>
-  <si>
-    <t>Z7U5MXLLUEO1TM5FDM</t>
-  </si>
-  <si>
-    <t>KE8XLD4Y9ZO9O9XJ0K</t>
-  </si>
-  <si>
-    <t>DCN4RCVIUYZ61WMJTW</t>
-  </si>
-  <si>
-    <t>F6NGE03C776YBN8EO1</t>
-  </si>
-  <si>
-    <t>3U1K73AOPG1J4CUW84</t>
-  </si>
-  <si>
-    <t>1FZAVOG91WIZAPTK53</t>
-  </si>
-  <si>
-    <t>02JBCZL7923J1YGZNP</t>
-  </si>
-  <si>
-    <t>L3Y0VWMGMQ8EU90DMJ</t>
-  </si>
-  <si>
-    <t>RX9DWLS4W492ZGPXGU</t>
-  </si>
-  <si>
-    <t>QDRT6WVVINVPLW1V1J</t>
-  </si>
-  <si>
-    <t>3TYTYPF2OFIB059HYS</t>
-  </si>
-  <si>
-    <t>5QI7W9AOXKXJJF79PA</t>
-  </si>
-  <si>
-    <t>4TGUTCRSVAQ9OPCZS7</t>
-  </si>
-  <si>
-    <t>UIRML3ZQS1U9T2M39K</t>
-  </si>
-  <si>
-    <t>Z48T0NWQTQACJG30RB</t>
-  </si>
-  <si>
-    <t>PIVOB34I2MU15M3ERF</t>
-  </si>
-  <si>
-    <t>CP5Z4X2R2NQW8JZD4V</t>
-  </si>
-  <si>
-    <t>DV262M2IB10QSF7CKY</t>
-  </si>
-  <si>
-    <t>AGWJ9F2U52VYU1URV0</t>
-  </si>
-  <si>
-    <t>SD70IKCAQ1ZSP29GSI</t>
-  </si>
-  <si>
-    <t>IU8K3YQVCD36OIC7T3</t>
-  </si>
-  <si>
-    <t>2K11BXOE1HTRNMKWQI</t>
-  </si>
-  <si>
-    <t>1MBSLKFJ9PH6MJ0JXJ</t>
-  </si>
-  <si>
-    <t>I8VGC3OLN9OPNQBG4B</t>
-  </si>
-  <si>
-    <t>9BUWWWXFRX4Z15KIAI</t>
-  </si>
-  <si>
-    <t>P8QYOXJ1JRTYXP9XTB</t>
-  </si>
-  <si>
-    <t>QSNVCJZXE9YPF42K2V</t>
-  </si>
-  <si>
-    <t>5C2TRIP2JYY897OGU8</t>
-  </si>
-  <si>
-    <t>II9XR7J78LBFX94LH8</t>
-  </si>
-  <si>
-    <t>C6I7WCX8PTTEDTD3CS</t>
-  </si>
-  <si>
-    <t>KW94BCKMKIQ6Y1PK3B</t>
-  </si>
-  <si>
-    <t>S3SMPWDH8I3PZXH8AA</t>
-  </si>
-  <si>
-    <t>THSRELI5EYZXXY281T</t>
-  </si>
-  <si>
-    <t>GLJLN8I96IZZ6C4MZP</t>
-  </si>
-  <si>
-    <t>HA6589NAKCLOCRL20T</t>
-  </si>
-  <si>
-    <t>YT8YOW986M9FDHGNWR</t>
-  </si>
-  <si>
-    <t>W4K6HELZ1HKD783RMY</t>
-  </si>
-  <si>
-    <t>VPCFF24HLDGAEOLT4P</t>
-  </si>
-  <si>
-    <t>ILUJGG9QE8IJFH0FU3</t>
-  </si>
-  <si>
-    <t>OLT9YRXFWQD8OA2BSJ</t>
-  </si>
-  <si>
-    <t>HJ6WOBIK0U6GF2PATW</t>
-  </si>
-  <si>
-    <t>HGIPNEX4D9IVUP3QR4</t>
-  </si>
-  <si>
-    <t>U3GHLW3PM7LDVWL05X</t>
-  </si>
-  <si>
-    <t>V9X5JHG22801PMY517</t>
-  </si>
-  <si>
-    <t>S5UECO6UFJTULMAZ3M</t>
-  </si>
-  <si>
-    <t>ITXDTMW0RKJP0IM0R2</t>
-  </si>
-  <si>
-    <t>U7C2UH2VN2NBLFZ7KC</t>
-  </si>
-  <si>
-    <t>O1Q307XZ6ELHOVCZ06</t>
-  </si>
-  <si>
-    <t>33CJDY3L5XIQJ4SML4</t>
-  </si>
-  <si>
-    <t>CS860ORXUJLK9WMDWJ</t>
-  </si>
-  <si>
-    <t>R02GG799LJWTVLGXJU</t>
-  </si>
-  <si>
-    <t>EO1J08MY7TLR02GCDL</t>
-  </si>
-  <si>
-    <t>PF3FB33NNYSEIT4ZL5</t>
-  </si>
-  <si>
-    <t>0FUGAXNIEF0CAWWAU8</t>
-  </si>
-  <si>
-    <t>ZEACKOEV77QZVC60AE</t>
-  </si>
-  <si>
-    <t>WBKU5F5WWTA40HJYYL</t>
-  </si>
-  <si>
-    <t>QDH5DL189ISOWZX1GW</t>
-  </si>
-  <si>
-    <t>BDFVA0N70K7Y8NFG8O</t>
-  </si>
-  <si>
-    <t>FFWZXFXKN9NI7YY9FY</t>
-  </si>
-  <si>
-    <t>3WXTV5AAWMI754YV1Z</t>
-  </si>
-  <si>
-    <t>7VMM24LFY12Q163SYS</t>
-  </si>
-  <si>
-    <t>VMC8J4VAC7BOM0D65O</t>
-  </si>
-  <si>
-    <t>0ZJCP5XOYQHO39QFYV</t>
-  </si>
-  <si>
-    <t>I6RD4ZQPLCR8CJ95CX</t>
-  </si>
-  <si>
-    <t>HGWTR8PF26DIQX0WBO</t>
-  </si>
-  <si>
-    <t>KEJ9X0FA8MQR3UMVSP</t>
-  </si>
-  <si>
-    <t>IFOE2TQ2MPLAE1MYAO</t>
-  </si>
-  <si>
-    <t>LG16W9SZA7ZT527XGI</t>
-  </si>
-  <si>
-    <t>RSW79SGYFHPS152WMF</t>
-  </si>
-  <si>
-    <t>O0E7IABLQ6SU2NVMUP</t>
-  </si>
-  <si>
-    <t>MDUF2WO42LAOSS5GN1</t>
-  </si>
-  <si>
-    <t>NQSKZIG49EUUHL1UZ5</t>
-  </si>
-  <si>
-    <t>7FMS9HQI1RQ7TO5R6J</t>
-  </si>
-  <si>
-    <t>J47GZDFDVTI8JZ25WI</t>
-  </si>
-  <si>
-    <t>JVGHH5LCLC32ZR5I19</t>
-  </si>
-  <si>
-    <t>T534VZUK1EMEL7U6YV</t>
-  </si>
-  <si>
-    <t>1A3451KNAWD40SANYW</t>
-  </si>
-  <si>
-    <t>Z6K8KNUPI03EJFFDFP</t>
-  </si>
-  <si>
-    <t>VY1ILIRRSH7BAC2JD0</t>
-  </si>
-  <si>
-    <t>I6S8J2KGYA59LC9OTG</t>
-  </si>
-  <si>
-    <t>A7EOHXO3VBYCFPWX8N</t>
-  </si>
-  <si>
-    <t>OIGZ0PQ6WYX67XRIYA</t>
-  </si>
-  <si>
-    <t>1UE4LG0IGC39XQTTKF</t>
-  </si>
-  <si>
-    <t>LUA3Q23NSW0V5ZWMMP</t>
-  </si>
-  <si>
-    <t>H0B4XPKWBFKVLSB1TK</t>
-  </si>
-  <si>
-    <t>9EM5VDEDQKXW5Q1VY3</t>
-  </si>
-  <si>
-    <t>23ZSFVWSMP8IW3V6NZ</t>
-  </si>
-  <si>
-    <t>4WB5BPJTXC80EF95YX</t>
-  </si>
-  <si>
-    <t>AMPU5GZORV323U2IBG</t>
-  </si>
-  <si>
-    <t>CTUUD7T4Z9390JFH52</t>
-  </si>
-  <si>
-    <t>UY8IT414NM99BMBT1X</t>
-  </si>
-  <si>
-    <t>CDZ58U6S5YVL545HZN</t>
-  </si>
-  <si>
-    <t>DPDFRAL7QOEDWUD7FR</t>
-  </si>
-  <si>
-    <t>F4TQM7X68D2VDCQW0X</t>
-  </si>
-  <si>
-    <t>OQW9Q5SUFDUSBJ2QVC</t>
-  </si>
-  <si>
-    <t>FKRGXWGS3V4XV10PEH</t>
-  </si>
-  <si>
-    <t>2Y3VHLKW5BW29XYQ8E</t>
-  </si>
-  <si>
-    <t>4SJ60Q4BUHSHZPB6YG</t>
-  </si>
-  <si>
-    <t>4ARB1GR56YK3O62YPY</t>
-  </si>
-  <si>
-    <t>GDP5YQYKGREDTRLS22</t>
-  </si>
-  <si>
-    <t>LZ628LUKIWLTBOFSOK</t>
-  </si>
-  <si>
-    <t>WN80XESN0ILB4B78EJ</t>
-  </si>
-  <si>
-    <t>PQLBPOSVBW2OKZESUD</t>
-  </si>
-  <si>
-    <t>Z3KY02RCGO79ODEFB7</t>
-  </si>
-  <si>
-    <t>ZE99OXZC5OSAWZS0E8</t>
-  </si>
-  <si>
-    <t>HKPVLZ03R866RKPOUL</t>
-  </si>
-  <si>
-    <t>PE6F4HBKHCJAWOCEO9</t>
-  </si>
-  <si>
-    <t>XDFXEMLI68ZU7YSVSO</t>
-  </si>
-  <si>
-    <t>5Q2H1SF4KFJ6LUAZPJ</t>
-  </si>
-  <si>
-    <t>XPMT2I8ZMKFZZI4C3C</t>
-  </si>
-  <si>
-    <t>QYPVF5BNW35H174MAS</t>
-  </si>
-  <si>
-    <t>WM9Z36UQ1HGJ82HHMX</t>
-  </si>
-  <si>
-    <t>74A7GZR6C5PVMRZZPA</t>
-  </si>
-  <si>
-    <t>XHKZXFPT29YEERHM1Z</t>
-  </si>
-  <si>
-    <t>LBWBU4UACQBDKD4B48</t>
-  </si>
-  <si>
-    <t>SFBKO6T6IEQB1KIZUP</t>
-  </si>
-  <si>
-    <t>8R74NA8E4MIGDYLJS2</t>
-  </si>
-  <si>
-    <t>E98R3OB4EGDVKV9TU9</t>
-  </si>
-  <si>
-    <t>3TCFP0UFG5RZRVJO3Y</t>
-  </si>
-  <si>
-    <t>VG4KF1MZ0DGQ2PLWZ2</t>
-  </si>
-  <si>
-    <t>VMMQKAI3MH6Y7CIAGT</t>
-  </si>
-  <si>
-    <t>3GIUVN8YZSFOAPA6TF</t>
-  </si>
-  <si>
-    <t>6V4DL4M83S5L1D9R46</t>
-  </si>
-  <si>
-    <t>E2EKC40L7Z7R1CD9OH</t>
-  </si>
-  <si>
-    <t>ZAWV52TDYJ7GWOR8I1</t>
-  </si>
-  <si>
-    <t>9C568951517IXZQQ8J</t>
-  </si>
-  <si>
-    <t>X6S5WKJ8E84M1HL2DN</t>
-  </si>
-  <si>
-    <t>KEKA88PPRO5WPYTPZK</t>
-  </si>
-  <si>
-    <t>8XFK0J0ZZKZ4TZ8DAS</t>
-  </si>
-  <si>
-    <t>7Q1FWC901UCCRIJ2KJ</t>
-  </si>
-  <si>
-    <t>6OXXP36X5K7AZT5KAV</t>
-  </si>
-  <si>
-    <t>3SCZML48RK08BO2D78</t>
-  </si>
-  <si>
-    <t>9TUXGVCP3N2HCK53EK</t>
-  </si>
-  <si>
-    <t>6GGDFDIQNYTQ43H3IV</t>
-  </si>
-  <si>
-    <t>JE5YBAZ4ILRRKQFL8B</t>
-  </si>
-  <si>
-    <t>L6CNA491A6BZKG9I8C</t>
-  </si>
-  <si>
-    <t>X44G82OPO2XT61VMU6</t>
-  </si>
-  <si>
-    <t>G0Y9V4QAWU6JLCDH5E</t>
-  </si>
-  <si>
-    <t>1J832F9HJE8BDAPFXD</t>
-  </si>
-  <si>
-    <t>RX1RBY71V2L3JVXWE2</t>
-  </si>
-  <si>
-    <t>BMUVPK0IA8XKFK90SV</t>
-  </si>
-  <si>
-    <t>7FKWYHVNA7FXFNV6W1</t>
-  </si>
-  <si>
-    <t>0X54ZXIEJ57QH4AEDD</t>
-  </si>
-  <si>
-    <t>1L0VJGN2SM9P781T88</t>
-  </si>
-  <si>
-    <t>9606X4WAPV57K2XP45</t>
-  </si>
-  <si>
-    <t>SKAMCIZRC92MGXRWLU</t>
-  </si>
-  <si>
-    <t>B93912EPO5QDJDHKTL</t>
-  </si>
-  <si>
-    <t>6U0MUNTVVM5ML4V15M</t>
-  </si>
-  <si>
-    <t>8IARA9172NORDBUHOB</t>
-  </si>
-  <si>
-    <t>F9F2X7JD2VMWV1LJPR</t>
-  </si>
-  <si>
-    <t>A5AEXF9ZS3VE5VBLM3</t>
-  </si>
-  <si>
-    <t>2Q98Z4QG6KYS8F9L4Z</t>
-  </si>
-  <si>
-    <t>M4UPIBEWNJVWK7SG75</t>
-  </si>
-  <si>
-    <t>0RBSLDW972NP6D7J0D</t>
-  </si>
-  <si>
-    <t>1ZRHMMD5SPBLXJ2SBB</t>
-  </si>
-  <si>
-    <t>720WTDHD4CZ7JE2NJU</t>
-  </si>
-  <si>
-    <t>46VJMV4RI4T04JE09R</t>
-  </si>
-  <si>
-    <t>EUO4I5VA8IYH9WOY75</t>
-  </si>
-  <si>
-    <t>SDRQDGMDXQ74X9BISJ</t>
-  </si>
-  <si>
-    <t>026SQ0OENX3EABCQ0E</t>
-  </si>
-  <si>
-    <t>1ICL2IT8PGLE3PYDOJ</t>
-  </si>
-  <si>
-    <t>32ANTEF4BZTCHKD1ES</t>
-  </si>
-  <si>
-    <t>F48FEFIEWRYKU361U2</t>
-  </si>
-  <si>
-    <t>PZ63NF9HS3T33V59TD</t>
-  </si>
-  <si>
-    <t>ZPWNFGFH02YMT1NMCF</t>
-  </si>
-  <si>
-    <t>7BF2V2YLTKLX5OGR7U</t>
-  </si>
-  <si>
-    <t>P2Q1L43V30IQ17OKFG</t>
-  </si>
-  <si>
-    <t>KOKBNN3SUDYVIW1EP0</t>
-  </si>
-  <si>
-    <t>60I1W3BC2RKS5ISJ8I</t>
-  </si>
-  <si>
-    <t>8CZXDLL379IK4FU9C0</t>
-  </si>
-  <si>
-    <t>9FQGZH1HP1IM8CAUR2</t>
-  </si>
-  <si>
-    <t>7RO9EQ3JTUJDUIDZGX</t>
-  </si>
-  <si>
-    <t>MNRXB0GI5HE4WYHBP8</t>
-  </si>
-  <si>
-    <t>S5MSZN60KP2WDM4ZA2</t>
-  </si>
-  <si>
-    <t>E68VNNTC0YIQZG5XF7</t>
-  </si>
-  <si>
-    <t>N1VAO75KMTK1XL7YKX</t>
-  </si>
-  <si>
-    <t>RWTX7B81F3DMQAIWGG</t>
-  </si>
-  <si>
-    <t>ZXMNWWNW9E2ETXUQCF</t>
-  </si>
-  <si>
-    <t>CYAPKWFSZHHRC1OVVU</t>
-  </si>
-  <si>
-    <t>BH0W976PLTFB9789Q3</t>
-  </si>
-  <si>
-    <t>GS1EJJHA7218L0K3FZ</t>
-  </si>
-  <si>
-    <t>RR9EW3WNUYHMCI40FY</t>
-  </si>
-  <si>
-    <t>91T05KMDKQ8FA3VVR4</t>
-  </si>
-  <si>
-    <t>91P0ZMTKN6ZV3PBWLV</t>
-  </si>
-  <si>
-    <t>7VQ96SBWJIU96CQI6I</t>
-  </si>
-  <si>
-    <t>HYKCF5727REIEWO2MK</t>
-  </si>
-  <si>
-    <t>KKWPCTTUG9PAPRIQU9</t>
-  </si>
-  <si>
-    <t>S07P3YA8N28APRZ7DX</t>
-  </si>
-  <si>
-    <t>YFSCFCLNW5YMHKZZSS</t>
-  </si>
-  <si>
-    <t>9MXCGQLFCQL8IPT55B</t>
-  </si>
-  <si>
-    <t>OPS61EHSSSE7DHIE1R</t>
-  </si>
-  <si>
-    <t>LIPPBPXZH6MSWUTTJX</t>
-  </si>
-  <si>
-    <t>ZHDN59LBUWS0BLEFBN</t>
-  </si>
-  <si>
-    <t>6DZ2G8ZUKSOKA5HKD7</t>
-  </si>
-  <si>
-    <t>E8ZS3ZN2JXU5JB0UB7</t>
-  </si>
-  <si>
-    <t>CCHJIJ1PR5UX0ZKZ6M</t>
-  </si>
-  <si>
-    <t>23MJUE0JWZLN91JPB6</t>
-  </si>
-  <si>
-    <t>N8VGBN7OFB0A4APQG7</t>
-  </si>
-  <si>
-    <t>W63BZTTQI8JNJYNSFW</t>
-  </si>
-  <si>
-    <t>2WRWF2J9XBQ24PXI7B</t>
-  </si>
-  <si>
-    <t>MJR4SE5R2SBI222E87</t>
-  </si>
-  <si>
-    <t>QQLFQUE3GVDVEITHIM</t>
-  </si>
-  <si>
-    <t>DEZ91ND8C7HI7TQ9N8</t>
-  </si>
-  <si>
-    <t>9MLRCFJB9EYN2EI4JD</t>
-  </si>
-  <si>
-    <t>E7CB8885UN56U40MS7</t>
-  </si>
-  <si>
-    <t>IWN2408YOZY82YZ7DM</t>
-  </si>
-  <si>
-    <t>AR3VT0X1MMFF1C7H3B</t>
-  </si>
-  <si>
-    <t>TYY9AJ5J4DPHOOIRIW</t>
-  </si>
-  <si>
-    <t>96W8BI94RF3CA5Y7Z3</t>
-  </si>
-  <si>
-    <t>9ZKXEP61NRS2F9R2MX</t>
-  </si>
-  <si>
-    <t>KJ3PGD0KKAH6GOAQ57</t>
-  </si>
-  <si>
-    <t>PSY3X90MK7BD6SJIZJ</t>
-  </si>
-  <si>
-    <t>BGEI6LNTX597AEMT0Y</t>
-  </si>
-  <si>
-    <t>CYHQ9JQHGZZ1W55ZHG</t>
-  </si>
-  <si>
-    <t>3V9F8TCJ0WQMYCRU1H</t>
-  </si>
-  <si>
-    <t>GQ9WUO40Y8JKUAW0M2</t>
-  </si>
-  <si>
-    <t>SOY3SEQY7E83BZ12XW</t>
-  </si>
-  <si>
-    <t>915HSQ68V0330E0V3W</t>
-  </si>
-  <si>
-    <t>1OUJYX901R4I0R5WE7</t>
-  </si>
-  <si>
-    <t>6ZPOIXIZ3XAEARU64A</t>
-  </si>
-  <si>
-    <t>2WEUAU38WKB0L9VDYM</t>
-  </si>
-  <si>
-    <t>8PU0E1Q9FLBD1QZM3O</t>
-  </si>
-  <si>
-    <t>06M5W2LCVD49HKNA1S</t>
-  </si>
-  <si>
-    <t>6GEJIQCJHGYV3FRN0U</t>
-  </si>
-  <si>
-    <t>VHQOU5UJJ9FLV8DPKT</t>
-  </si>
-  <si>
-    <t>9T78MU8QT9KFE99VO2</t>
-  </si>
-  <si>
-    <t>CNG4ET2TKPFOL5U1FN</t>
-  </si>
-  <si>
-    <t>R15YQ4FJ24QI6SSD8Y</t>
-  </si>
-  <si>
-    <t>4M21Z9A6AAIA7LZTJC</t>
-  </si>
-  <si>
-    <t>BUJVBACXNRCW7XY2AB</t>
-  </si>
-  <si>
-    <t>6Q9PIQ9EXRK9S6H3KH</t>
-  </si>
-  <si>
-    <t>Z3I7G8INBKILEFH03Y</t>
-  </si>
-  <si>
-    <t>CGTD1J04S353YJWO0X</t>
-  </si>
-  <si>
-    <t>B5LU2KH1145EL6A1BP</t>
-  </si>
-  <si>
-    <t>7NN4H4960GUI59U63O</t>
-  </si>
-  <si>
-    <t>SZBSK7WXQIYO42X1WX</t>
-  </si>
-  <si>
-    <t>N2KYKQPOUJRFW15HTY</t>
-  </si>
-  <si>
-    <t>2KUJXFACRQM73WGIJS</t>
-  </si>
-  <si>
-    <t>G71TQM5SY8S7E4ZKTM</t>
+    <t>idDueño</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4302,12 +3402,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4651,16 +3745,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4985,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4999,5119 +4090,5119 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1081</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>19845</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1082</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>22772</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1084</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>25366</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1089</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>17142</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1091</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>34069</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>1093</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>14739</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>1094</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>21469</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>1097</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>19976</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>1098</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>27456</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>1101</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>36077</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>1103</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>34222</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>1106</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>22014</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>1111</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>19878</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>1113</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>30475</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>1117</v>
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>32331</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>1118</v>
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>33635</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>1121</v>
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>26122</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>1123</v>
+      <c r="A44" s="1">
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>21524</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1126</v>
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>25759</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>1131</v>
+      <c r="A52" s="1">
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>27609</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>1132</v>
+      <c r="A53" s="1">
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>17422</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1136</v>
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>36528</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>1139</v>
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>15802</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>1142</v>
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>25996</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>1144</v>
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>24600</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>1148</v>
+      <c r="A69" s="1">
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>16539</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>1149</v>
+      <c r="A70" s="1">
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>16773</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>1153</v>
+      <c r="A74" s="1">
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>17179</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>1154</v>
+      <c r="A75" s="1">
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>33395</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>1156</v>
+      <c r="A77" s="1">
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>29046</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>1161</v>
+      <c r="A82" s="1">
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>17692</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>1165</v>
+      <c r="A86" s="1">
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>31201</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>1168</v>
+      <c r="A89" s="1">
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>19367</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>1170</v>
+      <c r="A91" s="1">
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>15740</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>1171</v>
+      <c r="A92" s="1">
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>17809</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>1172</v>
+      <c r="A93" s="1">
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>31390</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1177</v>
+      <c r="A98" s="1">
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>29528</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>1178</v>
+      <c r="A99" s="1">
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>15139</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>1179</v>
+      <c r="A100" s="1">
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>26756</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>1181</v>
+      <c r="A102" s="1">
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>14987</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>1183</v>
+      <c r="A104" s="1">
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>32450</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>1184</v>
+      <c r="A105" s="1">
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>14713</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>1186</v>
+      <c r="A107" s="1">
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>18936</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>1187</v>
+      <c r="A108" s="1">
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>33097</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E109" s="1" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>1190</v>
+      <c r="A111" s="1">
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>19179</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E114" s="1" t="s">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>1195</v>
+      <c r="A116" s="1">
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>36290</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>1196</v>
+      <c r="A117" s="1">
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>15564</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>1199</v>
+      <c r="A120" s="1">
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>29563</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>448</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1204</v>
+      <c r="A125" s="1">
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>16387</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>1205</v>
+      <c r="A126" s="1">
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>33911</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>1206</v>
+      <c r="A127" s="1">
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>32238</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>461</v>
-      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>1208</v>
+      <c r="A129" s="1">
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>29284</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>1211</v>
+      <c r="A132" s="1">
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>32667</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>1212</v>
+      <c r="A133" s="1">
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>31847</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>1213</v>
+      <c r="A134" s="1">
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>24782</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>489</v>
-      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>1216</v>
+      <c r="A137" s="1">
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>30592</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>1217</v>
+      <c r="A138" s="1">
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>25326</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>1219</v>
+      <c r="A140" s="1">
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>23686</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>1222</v>
+      <c r="A143" s="1">
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>27120</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>1224</v>
+      <c r="A145" s="1">
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>20425</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>1225</v>
+      <c r="A146" s="1">
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>14926</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>1230</v>
+      <c r="A151" s="1">
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>20702</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>1232</v>
+      <c r="A153" s="1">
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>20394</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>1234</v>
+      <c r="A155" s="1">
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>16077</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>1238</v>
+      <c r="A159" s="1">
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>18385</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>586</v>
-      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>1243</v>
+      <c r="A164" s="1">
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>35378</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>1246</v>
+      <c r="A167" s="1">
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>21610</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>600</v>
-      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>1247</v>
+      <c r="A168" s="1">
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>17573</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E168" s="1" t="s">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E169" s="1" t="s">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E173" s="1" t="s">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>639</v>
-      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>1257</v>
+      <c r="A178" s="1">
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>27914</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E179" s="1" t="s">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E180" s="1" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>1261</v>
+      <c r="A182" s="1">
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>23782</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E182" s="1" t="s">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>1263</v>
+      <c r="A184" s="1">
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>26272</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E184" s="1" t="s">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>1265</v>
+      <c r="A186" s="1">
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>23255</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E186" s="1" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>1267</v>
+      <c r="A188" s="1">
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>27674</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E188" s="1" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>682</v>
-      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>1269</v>
+      <c r="A190" s="1">
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>25423</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>685</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>1270</v>
+      <c r="A191" s="1">
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>34853</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E191" s="1" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>695</v>
-      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>1273</v>
+      <c r="A194" s="1">
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>19485</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>1274</v>
+      <c r="A195" s="1">
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>35377</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E197" s="1" t="s">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="E199" s="1" t="s">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>725</v>
-      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>1281</v>
+      <c r="A202" s="1">
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>17326</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>728</v>
-      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>1282</v>
+      <c r="A203" s="1">
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>23930</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>731</v>
-      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>1283</v>
+      <c r="A204" s="1">
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>20251</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E204" s="1" t="s">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>753</v>
-      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>1289</v>
+      <c r="A210" s="1">
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>25245</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E210" s="1" t="s">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>760</v>
-      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
-        <v>1291</v>
+      <c r="A212" s="1">
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>27701</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
-        <v>1294</v>
+      <c r="A215" s="1">
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>19637</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="E217" s="1" t="s">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="E218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="E219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="E220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>798</v>
-      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
-        <v>1301</v>
+      <c r="A222" s="1">
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>29587</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="E223" s="1" t="s">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>1304</v>
+      <c r="A225" s="1">
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>15037</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
-        <v>1306</v>
+      <c r="A227" s="1">
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>14957</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
-        <v>1309</v>
+      <c r="A230" s="1">
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>21976</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>1310</v>
+      <c r="A231" s="1">
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>15198</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>1313</v>
+      <c r="A234" s="1">
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>21042</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E235" s="1" t="s">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>852</v>
-      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>1316</v>
+      <c r="A237" s="1">
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>31237</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
-        <v>1317</v>
+      <c r="A238" s="1">
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>35775</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>858</v>
-      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>1318</v>
+      <c r="A239" s="1">
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>25147</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>861</v>
-      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>1319</v>
+      <c r="A240" s="1">
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>36383</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="E240" s="1" t="s">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>868</v>
-      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
-        <v>1321</v>
+      <c r="A242" s="1">
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>31753</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>875</v>
-      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
-        <v>1323</v>
+      <c r="A244" s="1">
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>35886</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
-        <v>1324</v>
+      <c r="A245" s="1">
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>22770</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>885</v>
-      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
-        <v>1326</v>
+      <c r="A247" s="1">
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>24484</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E247" s="1" t="s">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E248" s="1" t="s">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E249" s="1" t="s">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="E250" s="1" t="s">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="E251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
-        <v>1333</v>
+      <c r="A254" s="1">
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>23683</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>914</v>
-      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
-        <v>1334</v>
+      <c r="A255" s="1">
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>17808</v>
       </c>
       <c r="C255" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>917</v>
-      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
-        <v>1335</v>
+      <c r="A256" s="1">
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>26787</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="E256" s="1" t="s">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
-        <v>1337</v>
+      <c r="A258" s="1">
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>18691</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="E258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="E259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>935</v>
-      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
-        <v>1340</v>
+      <c r="A261" s="1">
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>35684</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E261" s="1" t="s">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E262" s="1" t="s">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>946</v>
-      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
-        <v>1343</v>
+      <c r="A264" s="1">
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>28644</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="E264" s="1" t="s">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="E265" s="1" t="s">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>961</v>
-      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
-        <v>1347</v>
+      <c r="A268" s="1">
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>31473</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>964</v>
-      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
-        <v>1348</v>
+      <c r="A269" s="1">
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>16410</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="E269" s="1" t="s">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>971</v>
-      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
-        <v>1350</v>
+      <c r="A271" s="1">
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>24177</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="E271" s="1" t="s">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="E272" s="1" t="s">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="E273" s="1" t="s">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="E274" s="1" t="s">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E277" s="1" t="s">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="E279" s="1" t="s">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1008</v>
-      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>1360</v>
+      <c r="A281" s="1">
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>25998</v>
       </c>
       <c r="C281" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="E281" s="1" t="s">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>1015</v>
-      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
-        <v>1362</v>
+      <c r="A283" s="1">
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>27734</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>1018</v>
-      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
-        <v>1363</v>
+      <c r="A284" s="1">
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>14952</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>1021</v>
-      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
-        <v>1364</v>
+      <c r="A285" s="1">
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>15192</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
-        <v>1365</v>
+      <c r="A286" s="1">
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>17118</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="E286" s="1" t="s">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="E287" s="1" t="s">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="E288" s="1" t="s">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="E289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>1043</v>
-      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
-        <v>1370</v>
+      <c r="A291" s="1">
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>31566</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="E291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="E292" s="1" t="s">
-        <v>1050</v>
-      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
-        <v>1372</v>
+      <c r="A293" s="1">
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>24507</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="E293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="E294" s="1" t="s">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>1061</v>
-      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
-        <v>1375</v>
+      <c r="A296" s="1">
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>25911</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>1064</v>
-      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
-        <v>1376</v>
+      <c r="A297" s="1">
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>34799</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>1067</v>
-      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
-        <v>1377</v>
+      <c r="A298" s="1">
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>34339</v>
       </c>
       <c r="C298" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="E298" s="1" t="s">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="E299" s="1" t="s">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="E300" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
-        <v>1380</v>
+      <c r="A301" s="1">
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>22007</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoFinal/05 Poblacion/dueno.xlsx
+++ b/ProyectoFinal/05 Poblacion/dueno.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="1081">
-  <si>
-    <t>fNacimiento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1200">
   <si>
     <t>nombre</t>
   </si>
@@ -51,9 +48,6 @@
     <t>Works</t>
   </si>
   <si>
-    <t>10/26/1985</t>
-  </si>
-  <si>
     <t>Madelena</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Franceschielli</t>
   </si>
   <si>
-    <t>04/30/2000</t>
-  </si>
-  <si>
     <t>Brocky</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>Dancer</t>
   </si>
   <si>
-    <t>10/19/1985</t>
-  </si>
-  <si>
     <t>Minnnie</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>Lindsay</t>
   </si>
   <si>
-    <t>01/30/1990</t>
-  </si>
-  <si>
     <t>Carlotta</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>Hannum</t>
   </si>
   <si>
-    <t>04/23/1987</t>
-  </si>
-  <si>
     <t>Ardene</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t>Dunseath</t>
   </si>
   <si>
-    <t>07/25/1987</t>
-  </si>
-  <si>
     <t>Jesse</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>Whaplington</t>
   </si>
   <si>
-    <t>04/13/1967</t>
-  </si>
-  <si>
     <t>Madelon</t>
   </si>
   <si>
@@ -180,9 +156,6 @@
     <t>Orgill</t>
   </si>
   <si>
-    <t>01/21/1945</t>
-  </si>
-  <si>
     <t>Gavra</t>
   </si>
   <si>
@@ -192,9 +165,6 @@
     <t>Collop</t>
   </si>
   <si>
-    <t>12/19/1997</t>
-  </si>
-  <si>
     <t>Margalo</t>
   </si>
   <si>
@@ -222,9 +192,6 @@
     <t>Craven</t>
   </si>
   <si>
-    <t>02/18/1957</t>
-  </si>
-  <si>
     <t>Catherin</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>Weatherhead</t>
   </si>
   <si>
-    <t>02/14/1962</t>
-  </si>
-  <si>
     <t>Lurlene</t>
   </si>
   <si>
@@ -255,9 +219,6 @@
     <t>Nealon</t>
   </si>
   <si>
-    <t>03/25/1958</t>
-  </si>
-  <si>
     <t>Marge</t>
   </si>
   <si>
@@ -276,9 +237,6 @@
     <t>Bouts</t>
   </si>
   <si>
-    <t>11/18/1974</t>
-  </si>
-  <si>
     <t>Rani</t>
   </si>
   <si>
@@ -288,9 +246,6 @@
     <t>Cecchetelli</t>
   </si>
   <si>
-    <t>11/23/1995</t>
-  </si>
-  <si>
     <t>Joscelin</t>
   </si>
   <si>
@@ -309,9 +264,6 @@
     <t>Dillimore</t>
   </si>
   <si>
-    <t>05/18/1961</t>
-  </si>
-  <si>
     <t>Willa</t>
   </si>
   <si>
@@ -321,9 +273,6 @@
     <t>Crewe</t>
   </si>
   <si>
-    <t>11/14/1968</t>
-  </si>
-  <si>
     <t>Lee</t>
   </si>
   <si>
@@ -333,9 +282,6 @@
     <t>Sexstone</t>
   </si>
   <si>
-    <t>01/13/1949</t>
-  </si>
-  <si>
     <t>Ardella</t>
   </si>
   <si>
@@ -345,9 +291,6 @@
     <t>Pikesley</t>
   </si>
   <si>
-    <t>08/29/1978</t>
-  </si>
-  <si>
     <t>Seumas</t>
   </si>
   <si>
@@ -366,9 +309,6 @@
     <t>O'Lagen</t>
   </si>
   <si>
-    <t>05/15/1965</t>
-  </si>
-  <si>
     <t>Luce</t>
   </si>
   <si>
@@ -387,9 +327,6 @@
     <t>Mart</t>
   </si>
   <si>
-    <t>09/19/1945</t>
-  </si>
-  <si>
     <t>Ainsley</t>
   </si>
   <si>
@@ -399,9 +336,6 @@
     <t>Vagg</t>
   </si>
   <si>
-    <t>05/30/1995</t>
-  </si>
-  <si>
     <t>Gilbertine</t>
   </si>
   <si>
@@ -411,9 +345,6 @@
     <t>January 1st</t>
   </si>
   <si>
-    <t>09/17/1977</t>
-  </si>
-  <si>
     <t>Carole</t>
   </si>
   <si>
@@ -441,9 +372,6 @@
     <t>Swinnard</t>
   </si>
   <si>
-    <t>07/24/1961</t>
-  </si>
-  <si>
     <t>Con</t>
   </si>
   <si>
@@ -453,9 +381,6 @@
     <t>Winkell</t>
   </si>
   <si>
-    <t>01/18/1971</t>
-  </si>
-  <si>
     <t>Marice</t>
   </si>
   <si>
@@ -474,9 +399,6 @@
     <t>Nanelli</t>
   </si>
   <si>
-    <t>06/17/1992</t>
-  </si>
-  <si>
     <t>Maggi</t>
   </si>
   <si>
@@ -495,9 +417,6 @@
     <t>Rehme</t>
   </si>
   <si>
-    <t>07/30/1979</t>
-  </si>
-  <si>
     <t>Jourdan</t>
   </si>
   <si>
@@ -507,9 +426,6 @@
     <t>Willshaw</t>
   </si>
   <si>
-    <t>04/29/1952</t>
-  </si>
-  <si>
     <t>Nadya</t>
   </si>
   <si>
@@ -528,9 +444,6 @@
     <t>Moultrie</t>
   </si>
   <si>
-    <t>12/21/1954</t>
-  </si>
-  <si>
     <t>Berry</t>
   </si>
   <si>
@@ -540,9 +453,6 @@
     <t>Eustes</t>
   </si>
   <si>
-    <t>01/22/1995</t>
-  </si>
-  <si>
     <t>Cassaundra</t>
   </si>
   <si>
@@ -552,9 +462,6 @@
     <t>Tuck</t>
   </si>
   <si>
-    <t>10/13/1964</t>
-  </si>
-  <si>
     <t>Aeriel</t>
   </si>
   <si>
@@ -564,9 +471,6 @@
     <t>Arbuckel</t>
   </si>
   <si>
-    <t>12/14/1973</t>
-  </si>
-  <si>
     <t>Ameline</t>
   </si>
   <si>
@@ -594,9 +498,6 @@
     <t>Quayle</t>
   </si>
   <si>
-    <t>06/13/1958</t>
-  </si>
-  <si>
     <t>Rosalind</t>
   </si>
   <si>
@@ -606,9 +507,6 @@
     <t>Campsall</t>
   </si>
   <si>
-    <t>11/25/1996</t>
-  </si>
-  <si>
     <t>Emile</t>
   </si>
   <si>
@@ -618,9 +516,6 @@
     <t>Shapera</t>
   </si>
   <si>
-    <t>10/13/1966</t>
-  </si>
-  <si>
     <t>Ulrick</t>
   </si>
   <si>
@@ -639,9 +534,6 @@
     <t>Restorick</t>
   </si>
   <si>
-    <t>06/18/1953</t>
-  </si>
-  <si>
     <t>Ingar</t>
   </si>
   <si>
@@ -651,9 +543,6 @@
     <t>Spores</t>
   </si>
   <si>
-    <t>09/24/1959</t>
-  </si>
-  <si>
     <t>Aurthur</t>
   </si>
   <si>
@@ -672,9 +561,6 @@
     <t>Lindfors</t>
   </si>
   <si>
-    <t>06/28/1999</t>
-  </si>
-  <si>
     <t>Babb</t>
   </si>
   <si>
@@ -684,9 +570,6 @@
     <t>Shovlar</t>
   </si>
   <si>
-    <t>03/27/2000</t>
-  </si>
-  <si>
     <t>Marji</t>
   </si>
   <si>
@@ -705,9 +588,6 @@
     <t>Slator</t>
   </si>
   <si>
-    <t>06/26/1966</t>
-  </si>
-  <si>
     <t>Brok</t>
   </si>
   <si>
@@ -726,9 +606,6 @@
     <t>Pauley</t>
   </si>
   <si>
-    <t>02/24/1988</t>
-  </si>
-  <si>
     <t>Ernst</t>
   </si>
   <si>
@@ -738,9 +615,6 @@
     <t>Clousley</t>
   </si>
   <si>
-    <t>04/17/1985</t>
-  </si>
-  <si>
     <t>Jackie</t>
   </si>
   <si>
@@ -750,9 +624,6 @@
     <t>Schubert</t>
   </si>
   <si>
-    <t>06/20/1972</t>
-  </si>
-  <si>
     <t>Retha</t>
   </si>
   <si>
@@ -780,9 +651,6 @@
     <t>Runnalls</t>
   </si>
   <si>
-    <t>10/26/1973</t>
-  </si>
-  <si>
     <t>Amalita</t>
   </si>
   <si>
@@ -792,9 +660,6 @@
     <t>Gracey</t>
   </si>
   <si>
-    <t>09/14/1984</t>
-  </si>
-  <si>
     <t>Aubrie</t>
   </si>
   <si>
@@ -804,9 +669,6 @@
     <t>Readman</t>
   </si>
   <si>
-    <t>07/21/1998</t>
-  </si>
-  <si>
     <t>Lebbie</t>
   </si>
   <si>
@@ -834,9 +696,6 @@
     <t>Eallis</t>
   </si>
   <si>
-    <t>05/15/1988</t>
-  </si>
-  <si>
     <t>Welbie</t>
   </si>
   <si>
@@ -855,9 +714,6 @@
     <t>Pescod</t>
   </si>
   <si>
-    <t>01/23/1972</t>
-  </si>
-  <si>
     <t>Rodolfo</t>
   </si>
   <si>
@@ -867,9 +723,6 @@
     <t>Roskelly</t>
   </si>
   <si>
-    <t>08/14/1980</t>
-  </si>
-  <si>
     <t>Em</t>
   </si>
   <si>
@@ -879,9 +732,6 @@
     <t>Bony</t>
   </si>
   <si>
-    <t>05/13/1989</t>
-  </si>
-  <si>
     <t>Portie</t>
   </si>
   <si>
@@ -891,9 +741,6 @@
     <t>Doog</t>
   </si>
   <si>
-    <t>10/18/1965</t>
-  </si>
-  <si>
     <t>Chanda</t>
   </si>
   <si>
@@ -912,9 +759,6 @@
     <t>Mayberry</t>
   </si>
   <si>
-    <t>03/16/1983</t>
-  </si>
-  <si>
     <t>Ricca</t>
   </si>
   <si>
@@ -924,9 +768,6 @@
     <t>Cisar</t>
   </si>
   <si>
-    <t>09/17/1994</t>
-  </si>
-  <si>
     <t>Lianne</t>
   </si>
   <si>
@@ -936,9 +777,6 @@
     <t>Spuffard</t>
   </si>
   <si>
-    <t>09/22/1958</t>
-  </si>
-  <si>
     <t>Falito</t>
   </si>
   <si>
@@ -957,9 +795,6 @@
     <t>Quaife</t>
   </si>
   <si>
-    <t>09/14/1980</t>
-  </si>
-  <si>
     <t>Consalve</t>
   </si>
   <si>
@@ -969,9 +804,6 @@
     <t>Chubb</t>
   </si>
   <si>
-    <t>06/22/1972</t>
-  </si>
-  <si>
     <t>Gabriela</t>
   </si>
   <si>
@@ -990,9 +822,6 @@
     <t>Burker</t>
   </si>
   <si>
-    <t>11/24/1950</t>
-  </si>
-  <si>
     <t>Jasun</t>
   </si>
   <si>
@@ -1029,9 +858,6 @@
     <t>Carberry</t>
   </si>
   <si>
-    <t>07/25/1991</t>
-  </si>
-  <si>
     <t>Jeff</t>
   </si>
   <si>
@@ -1041,9 +867,6 @@
     <t>Trahearn</t>
   </si>
   <si>
-    <t>02/17/1989</t>
-  </si>
-  <si>
     <t>Miguelita</t>
   </si>
   <si>
@@ -1053,9 +876,6 @@
     <t>Ody</t>
   </si>
   <si>
-    <t>09/21/1973</t>
-  </si>
-  <si>
     <t>Britta</t>
   </si>
   <si>
@@ -1065,9 +885,6 @@
     <t>Stubbings</t>
   </si>
   <si>
-    <t>03/26/1980</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -1104,9 +921,6 @@
     <t>Pentycross</t>
   </si>
   <si>
-    <t>06/18/1958</t>
-  </si>
-  <si>
     <t>Lorrie</t>
   </si>
   <si>
@@ -1125,9 +939,6 @@
     <t>Jikovsky</t>
   </si>
   <si>
-    <t>05/31/1958</t>
-  </si>
-  <si>
     <t>Bianca</t>
   </si>
   <si>
@@ -1155,9 +966,6 @@
     <t>Keemer</t>
   </si>
   <si>
-    <t>03/29/1970</t>
-  </si>
-  <si>
     <t>Crystal</t>
   </si>
   <si>
@@ -1185,9 +993,6 @@
     <t>Devitt</t>
   </si>
   <si>
-    <t>12/21/1969</t>
-  </si>
-  <si>
     <t>Demott</t>
   </si>
   <si>
@@ -1197,9 +1002,6 @@
     <t>Poundford</t>
   </si>
   <si>
-    <t>06/15/1947</t>
-  </si>
-  <si>
     <t>Javier</t>
   </si>
   <si>
@@ -1218,9 +1020,6 @@
     <t>Kirke</t>
   </si>
   <si>
-    <t>12/18/1942</t>
-  </si>
-  <si>
     <t>Casper</t>
   </si>
   <si>
@@ -1230,9 +1029,6 @@
     <t>Luparto</t>
   </si>
   <si>
-    <t>04/18/2000</t>
-  </si>
-  <si>
     <t>Effie</t>
   </si>
   <si>
@@ -1242,9 +1038,6 @@
     <t>Yukhnov</t>
   </si>
   <si>
-    <t>05/22/1945</t>
-  </si>
-  <si>
     <t>Edita</t>
   </si>
   <si>
@@ -1254,9 +1047,6 @@
     <t>Thamelt</t>
   </si>
   <si>
-    <t>05/21/1960</t>
-  </si>
-  <si>
     <t>Rolfe</t>
   </si>
   <si>
@@ -1284,9 +1074,6 @@
     <t>McQuarrie</t>
   </si>
   <si>
-    <t>12/16/1946</t>
-  </si>
-  <si>
     <t>Ellette</t>
   </si>
   <si>
@@ -1296,9 +1083,6 @@
     <t>Costan</t>
   </si>
   <si>
-    <t>07/30/1955</t>
-  </si>
-  <si>
     <t>Edmund</t>
   </si>
   <si>
@@ -1317,9 +1101,6 @@
     <t>Garnul</t>
   </si>
   <si>
-    <t>04/24/1983</t>
-  </si>
-  <si>
     <t>Dania</t>
   </si>
   <si>
@@ -1329,9 +1110,6 @@
     <t>Northley</t>
   </si>
   <si>
-    <t>01/22/1950</t>
-  </si>
-  <si>
     <t>Jaquelin</t>
   </si>
   <si>
@@ -1341,9 +1119,6 @@
     <t>Stubbert</t>
   </si>
   <si>
-    <t>02/29/2000</t>
-  </si>
-  <si>
     <t>Latashia</t>
   </si>
   <si>
@@ -1353,9 +1128,6 @@
     <t>Singh</t>
   </si>
   <si>
-    <t>08/24/1940</t>
-  </si>
-  <si>
     <t>Marsha</t>
   </si>
   <si>
@@ -1392,9 +1164,6 @@
     <t>Danskine</t>
   </si>
   <si>
-    <t>04/23/1998</t>
-  </si>
-  <si>
     <t>Klement</t>
   </si>
   <si>
@@ -1413,9 +1182,6 @@
     <t>Bompas</t>
   </si>
   <si>
-    <t>12/25/1948</t>
-  </si>
-  <si>
     <t>Ida</t>
   </si>
   <si>
@@ -1425,9 +1191,6 @@
     <t>Imesen</t>
   </si>
   <si>
-    <t>05/25/1978</t>
-  </si>
-  <si>
     <t>Grenville</t>
   </si>
   <si>
@@ -1464,9 +1227,6 @@
     <t>Fearnley</t>
   </si>
   <si>
-    <t>09/20/1995</t>
-  </si>
-  <si>
     <t>Stacee</t>
   </si>
   <si>
@@ -1476,9 +1236,6 @@
     <t>Costelloe</t>
   </si>
   <si>
-    <t>03/19/1989</t>
-  </si>
-  <si>
     <t>Yvon</t>
   </si>
   <si>
@@ -1506,9 +1263,6 @@
     <t>Farington</t>
   </si>
   <si>
-    <t>08/19/1955</t>
-  </si>
-  <si>
     <t>Brunhilde</t>
   </si>
   <si>
@@ -1527,9 +1281,6 @@
     <t>Minifie</t>
   </si>
   <si>
-    <t>05/21/1942</t>
-  </si>
-  <si>
     <t>Luci</t>
   </si>
   <si>
@@ -1539,9 +1290,6 @@
     <t>Dorbin</t>
   </si>
   <si>
-    <t>09/27/1949</t>
-  </si>
-  <si>
     <t>Aubrey</t>
   </si>
   <si>
@@ -1560,9 +1308,6 @@
     <t>Neil</t>
   </si>
   <si>
-    <t>07/24/1959</t>
-  </si>
-  <si>
     <t>Shir</t>
   </si>
   <si>
@@ -1590,9 +1335,6 @@
     <t>McLarty</t>
   </si>
   <si>
-    <t>11/25/1992</t>
-  </si>
-  <si>
     <t>Giraud</t>
   </si>
   <si>
@@ -1602,9 +1344,6 @@
     <t>Dreher</t>
   </si>
   <si>
-    <t>02/18/1988</t>
-  </si>
-  <si>
     <t>Charin</t>
   </si>
   <si>
@@ -1614,9 +1353,6 @@
     <t>Rabbatts</t>
   </si>
   <si>
-    <t>03/23/1946</t>
-  </si>
-  <si>
     <t>Jenilee</t>
   </si>
   <si>
@@ -1626,9 +1362,6 @@
     <t>Boarer</t>
   </si>
   <si>
-    <t>11/23/1972</t>
-  </si>
-  <si>
     <t>Kellsie</t>
   </si>
   <si>
@@ -1647,9 +1380,6 @@
     <t>Blamire</t>
   </si>
   <si>
-    <t>03/27/1944</t>
-  </si>
-  <si>
     <t>Yettie</t>
   </si>
   <si>
@@ -1668,9 +1398,6 @@
     <t>Roswarne</t>
   </si>
   <si>
-    <t>01/15/1981</t>
-  </si>
-  <si>
     <t>Scotti</t>
   </si>
   <si>
@@ -1689,9 +1416,6 @@
     <t>Sabbins</t>
   </si>
   <si>
-    <t>05/23/1943</t>
-  </si>
-  <si>
     <t>Dore</t>
   </si>
   <si>
@@ -1701,18 +1425,12 @@
     <t>Hardi</t>
   </si>
   <si>
-    <t>02/16/1997</t>
-  </si>
-  <si>
     <t>MacLaig</t>
   </si>
   <si>
     <t>Haycraft</t>
   </si>
   <si>
-    <t>09/25/1995</t>
-  </si>
-  <si>
     <t>Keven</t>
   </si>
   <si>
@@ -1731,9 +1449,6 @@
     <t>Powis</t>
   </si>
   <si>
-    <t>12/16/1989</t>
-  </si>
-  <si>
     <t>Toma</t>
   </si>
   <si>
@@ -1743,9 +1458,6 @@
     <t>Mityakov</t>
   </si>
   <si>
-    <t>01/30/1946</t>
-  </si>
-  <si>
     <t>Rosalia</t>
   </si>
   <si>
@@ -1755,9 +1467,6 @@
     <t>Treske</t>
   </si>
   <si>
-    <t>03/14/1970</t>
-  </si>
-  <si>
     <t>Colin</t>
   </si>
   <si>
@@ -1767,9 +1476,6 @@
     <t>Longmire</t>
   </si>
   <si>
-    <t>07/30/1971</t>
-  </si>
-  <si>
     <t>Phaedra</t>
   </si>
   <si>
@@ -1788,9 +1494,6 @@
     <t>Brand-Hardy</t>
   </si>
   <si>
-    <t>11/17/1946</t>
-  </si>
-  <si>
     <t>Caritta</t>
   </si>
   <si>
@@ -1800,9 +1503,6 @@
     <t>Rushmare</t>
   </si>
   <si>
-    <t>06/19/1997</t>
-  </si>
-  <si>
     <t>Rebbecca</t>
   </si>
   <si>
@@ -1830,9 +1530,6 @@
     <t>Gounet</t>
   </si>
   <si>
-    <t>09/27/1963</t>
-  </si>
-  <si>
     <t>Celka</t>
   </si>
   <si>
@@ -1842,9 +1539,6 @@
     <t>Arent</t>
   </si>
   <si>
-    <t>02/26/1968</t>
-  </si>
-  <si>
     <t>Gertrud</t>
   </si>
   <si>
@@ -1854,9 +1548,6 @@
     <t>Sparks</t>
   </si>
   <si>
-    <t>12/20/1983</t>
-  </si>
-  <si>
     <t>Micah</t>
   </si>
   <si>
@@ -1866,9 +1557,6 @@
     <t>Gedney</t>
   </si>
   <si>
-    <t>08/31/1974</t>
-  </si>
-  <si>
     <t>D'arcy</t>
   </si>
   <si>
@@ -1878,9 +1566,6 @@
     <t>Gulliman</t>
   </si>
   <si>
-    <t>08/29/1956</t>
-  </si>
-  <si>
     <t>Nestor</t>
   </si>
   <si>
@@ -1890,9 +1575,6 @@
     <t>Mapplebeck</t>
   </si>
   <si>
-    <t>10/18/1973</t>
-  </si>
-  <si>
     <t>Abbot</t>
   </si>
   <si>
@@ -1902,9 +1584,6 @@
     <t>Meddick</t>
   </si>
   <si>
-    <t>01/13/1948</t>
-  </si>
-  <si>
     <t>Anjela</t>
   </si>
   <si>
@@ -1914,9 +1593,6 @@
     <t>Viney</t>
   </si>
   <si>
-    <t>04/23/1981</t>
-  </si>
-  <si>
     <t>Bebe</t>
   </si>
   <si>
@@ -1926,9 +1602,6 @@
     <t>Bazek</t>
   </si>
   <si>
-    <t>04/17/1968</t>
-  </si>
-  <si>
     <t>Cynthia</t>
   </si>
   <si>
@@ -1947,9 +1620,6 @@
     <t>Dovey</t>
   </si>
   <si>
-    <t>05/20/1976</t>
-  </si>
-  <si>
     <t>Rafe</t>
   </si>
   <si>
@@ -1959,9 +1629,6 @@
     <t>Reidshaw</t>
   </si>
   <si>
-    <t>01/18/1997</t>
-  </si>
-  <si>
     <t>Pincas</t>
   </si>
   <si>
@@ -1971,9 +1638,6 @@
     <t>Jerrim</t>
   </si>
   <si>
-    <t>02/23/1958</t>
-  </si>
-  <si>
     <t>Alic</t>
   </si>
   <si>
@@ -1992,9 +1656,6 @@
     <t>Toolin</t>
   </si>
   <si>
-    <t>06/14/1959</t>
-  </si>
-  <si>
     <t>Fae</t>
   </si>
   <si>
@@ -2013,9 +1674,6 @@
     <t>Readhead</t>
   </si>
   <si>
-    <t>07/14/1998</t>
-  </si>
-  <si>
     <t>Alma</t>
   </si>
   <si>
@@ -2034,9 +1692,6 @@
     <t>Mussolini</t>
   </si>
   <si>
-    <t>09/24/1944</t>
-  </si>
-  <si>
     <t>Kliment</t>
   </si>
   <si>
@@ -2055,9 +1710,6 @@
     <t>Koene</t>
   </si>
   <si>
-    <t>07/24/1971</t>
-  </si>
-  <si>
     <t>Lefty</t>
   </si>
   <si>
@@ -2082,9 +1734,6 @@
     <t>Robiou</t>
   </si>
   <si>
-    <t>10/31/1966</t>
-  </si>
-  <si>
     <t>Selle</t>
   </si>
   <si>
@@ -2094,9 +1743,6 @@
     <t>Dono</t>
   </si>
   <si>
-    <t>07/25/1965</t>
-  </si>
-  <si>
     <t>Abrahan</t>
   </si>
   <si>
@@ -2124,9 +1770,6 @@
     <t>Camfield</t>
   </si>
   <si>
-    <t>11/14/1989</t>
-  </si>
-  <si>
     <t>Jessi</t>
   </si>
   <si>
@@ -2136,9 +1779,6 @@
     <t>Kubacki</t>
   </si>
   <si>
-    <t>01/23/1950</t>
-  </si>
-  <si>
     <t>Lorens</t>
   </si>
   <si>
@@ -2148,9 +1788,6 @@
     <t>Lightfoot</t>
   </si>
   <si>
-    <t>01/25/1963</t>
-  </si>
-  <si>
     <t>Currie</t>
   </si>
   <si>
@@ -2160,9 +1797,6 @@
     <t>Coats</t>
   </si>
   <si>
-    <t>01/13/1971</t>
-  </si>
-  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -2172,9 +1806,6 @@
     <t>Doxey</t>
   </si>
   <si>
-    <t>01/20/1983</t>
-  </si>
-  <si>
     <t>Gabrila</t>
   </si>
   <si>
@@ -2184,9 +1815,6 @@
     <t>Stodit</t>
   </si>
   <si>
-    <t>07/26/1954</t>
-  </si>
-  <si>
     <t>Leena</t>
   </si>
   <si>
@@ -2223,9 +1851,6 @@
     <t>Argyle</t>
   </si>
   <si>
-    <t>10/31/1990</t>
-  </si>
-  <si>
     <t>Delia</t>
   </si>
   <si>
@@ -2244,9 +1869,6 @@
     <t>Cowx</t>
   </si>
   <si>
-    <t>05/22/1950</t>
-  </si>
-  <si>
     <t>Caitrin</t>
   </si>
   <si>
@@ -2256,9 +1878,6 @@
     <t>Brabham</t>
   </si>
   <si>
-    <t>04/21/1941</t>
-  </si>
-  <si>
     <t>Ennis</t>
   </si>
   <si>
@@ -2268,9 +1887,6 @@
     <t>Cheeseman</t>
   </si>
   <si>
-    <t>01/23/1958</t>
-  </si>
-  <si>
     <t>Adrian</t>
   </si>
   <si>
@@ -2289,9 +1905,6 @@
     <t>Enrigo</t>
   </si>
   <si>
-    <t>10/25/1967</t>
-  </si>
-  <si>
     <t>Kacey</t>
   </si>
   <si>
@@ -2310,9 +1923,6 @@
     <t>Halling</t>
   </si>
   <si>
-    <t>08/18/1988</t>
-  </si>
-  <si>
     <t>Carlynne</t>
   </si>
   <si>
@@ -2322,9 +1932,6 @@
     <t>MacMoyer</t>
   </si>
   <si>
-    <t>01/22/1965</t>
-  </si>
-  <si>
     <t>Gannie</t>
   </si>
   <si>
@@ -2343,9 +1950,6 @@
     <t>Billo</t>
   </si>
   <si>
-    <t>11/20/1979</t>
-  </si>
-  <si>
     <t>Chadd</t>
   </si>
   <si>
@@ -2355,9 +1959,6 @@
     <t>Merredy</t>
   </si>
   <si>
-    <t>06/16/1980</t>
-  </si>
-  <si>
     <t>Becky</t>
   </si>
   <si>
@@ -2367,9 +1968,6 @@
     <t>Botley</t>
   </si>
   <si>
-    <t>05/23/1944</t>
-  </si>
-  <si>
     <t>Rozamond</t>
   </si>
   <si>
@@ -2379,9 +1977,6 @@
     <t>McGeraghty</t>
   </si>
   <si>
-    <t>04/16/1944</t>
-  </si>
-  <si>
     <t>Howie</t>
   </si>
   <si>
@@ -2391,9 +1986,6 @@
     <t>Mycroft</t>
   </si>
   <si>
-    <t>08/25/1953</t>
-  </si>
-  <si>
     <t>Ernie</t>
   </si>
   <si>
@@ -2403,9 +1995,6 @@
     <t>Aldrick</t>
   </si>
   <si>
-    <t>03/14/1982</t>
-  </si>
-  <si>
     <t>Jase</t>
   </si>
   <si>
@@ -2424,9 +2013,6 @@
     <t>Bailes</t>
   </si>
   <si>
-    <t>01/14/1998</t>
-  </si>
-  <si>
     <t>Mel</t>
   </si>
   <si>
@@ -2436,9 +2022,6 @@
     <t>Le Estut</t>
   </si>
   <si>
-    <t>11/25/1967</t>
-  </si>
-  <si>
     <t>Vicky</t>
   </si>
   <si>
@@ -2457,9 +2040,6 @@
     <t>Wordesworth</t>
   </si>
   <si>
-    <t>11/16/1998</t>
-  </si>
-  <si>
     <t>Rakel</t>
   </si>
   <si>
@@ -2478,9 +2058,6 @@
     <t>Fewless</t>
   </si>
   <si>
-    <t>05/13/1964</t>
-  </si>
-  <si>
     <t>Godfrey</t>
   </si>
   <si>
@@ -2490,9 +2067,6 @@
     <t>Serot</t>
   </si>
   <si>
-    <t>06/19/1994</t>
-  </si>
-  <si>
     <t>Selene</t>
   </si>
   <si>
@@ -2520,9 +2094,6 @@
     <t>Prydie</t>
   </si>
   <si>
-    <t>08/13/1981</t>
-  </si>
-  <si>
     <t>Clim</t>
   </si>
   <si>
@@ -2532,9 +2103,6 @@
     <t>Savory</t>
   </si>
   <si>
-    <t>05/26/1998</t>
-  </si>
-  <si>
     <t>Dud</t>
   </si>
   <si>
@@ -2553,9 +2121,6 @@
     <t>Trigwell</t>
   </si>
   <si>
-    <t>03/24/1946</t>
-  </si>
-  <si>
     <t>Kettie</t>
   </si>
   <si>
@@ -2565,9 +2130,6 @@
     <t>Sproule</t>
   </si>
   <si>
-    <t>04/29/1976</t>
-  </si>
-  <si>
     <t>Ranice</t>
   </si>
   <si>
@@ -2613,9 +2175,6 @@
     <t>Gheorghe</t>
   </si>
   <si>
-    <t>05/18/1950</t>
-  </si>
-  <si>
     <t>Randi</t>
   </si>
   <si>
@@ -2634,9 +2193,6 @@
     <t>Ruppeli</t>
   </si>
   <si>
-    <t>03/26/1972</t>
-  </si>
-  <si>
     <t>Pembroke</t>
   </si>
   <si>
@@ -2664,9 +2220,6 @@
     <t>Marsie</t>
   </si>
   <si>
-    <t>03/19/1957</t>
-  </si>
-  <si>
     <t>Jeanette</t>
   </si>
   <si>
@@ -2685,9 +2238,6 @@
     <t>Greathead</t>
   </si>
   <si>
-    <t>06/27/1996</t>
-  </si>
-  <si>
     <t>Ag</t>
   </si>
   <si>
@@ -2697,9 +2247,6 @@
     <t>Loftus</t>
   </si>
   <si>
-    <t>12/17/1969</t>
-  </si>
-  <si>
     <t>Dayna</t>
   </si>
   <si>
@@ -2709,9 +2256,6 @@
     <t>Harridge</t>
   </si>
   <si>
-    <t>04/18/1954</t>
-  </si>
-  <si>
     <t>Rodger</t>
   </si>
   <si>
@@ -2721,9 +2265,6 @@
     <t>Docwra</t>
   </si>
   <si>
-    <t>06/16/1966</t>
-  </si>
-  <si>
     <t>Carling</t>
   </si>
   <si>
@@ -2742,9 +2283,6 @@
     <t>Lempertz</t>
   </si>
   <si>
-    <t>07/22/1966</t>
-  </si>
-  <si>
     <t>Clemmy</t>
   </si>
   <si>
@@ -2781,9 +2319,6 @@
     <t>Hughes</t>
   </si>
   <si>
-    <t>04/16/1977</t>
-  </si>
-  <si>
     <t>Wilmer</t>
   </si>
   <si>
@@ -2802,9 +2337,6 @@
     <t>Blenkin</t>
   </si>
   <si>
-    <t>04/25/1970</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -2814,9 +2346,6 @@
     <t>Quest</t>
   </si>
   <si>
-    <t>11/29/1968</t>
-  </si>
-  <si>
     <t>Becca</t>
   </si>
   <si>
@@ -2835,9 +2364,6 @@
     <t>Shears</t>
   </si>
   <si>
-    <t>06/26/1955</t>
-  </si>
-  <si>
     <t>Spike</t>
   </si>
   <si>
@@ -2847,9 +2373,6 @@
     <t>Packe</t>
   </si>
   <si>
-    <t>02/28/1974</t>
-  </si>
-  <si>
     <t>Cherlyn</t>
   </si>
   <si>
@@ -2868,9 +2391,6 @@
     <t>Kermon</t>
   </si>
   <si>
-    <t>12/29/1966</t>
-  </si>
-  <si>
     <t>Korry</t>
   </si>
   <si>
@@ -2880,9 +2400,6 @@
     <t>MacMychem</t>
   </si>
   <si>
-    <t>07/16/1965</t>
-  </si>
-  <si>
     <t>Samuel</t>
   </si>
   <si>
@@ -2892,9 +2409,6 @@
     <t>Stockin</t>
   </si>
   <si>
-    <t>02/20/1988</t>
-  </si>
-  <si>
     <t>Nell</t>
   </si>
   <si>
@@ -2922,9 +2436,6 @@
     <t>Sedge</t>
   </si>
   <si>
-    <t>01/16/1952</t>
-  </si>
-  <si>
     <t>Christos</t>
   </si>
   <si>
@@ -2943,9 +2454,6 @@
     <t>Bawcock</t>
   </si>
   <si>
-    <t>10/28/1967</t>
-  </si>
-  <si>
     <t>Yale</t>
   </si>
   <si>
@@ -2955,9 +2463,6 @@
     <t>Adamson</t>
   </si>
   <si>
-    <t>11/14/1966</t>
-  </si>
-  <si>
     <t>Albrecht</t>
   </si>
   <si>
@@ -2967,9 +2472,6 @@
     <t>Chastney</t>
   </si>
   <si>
-    <t>06/25/1961</t>
-  </si>
-  <si>
     <t>Halimeda</t>
   </si>
   <si>
@@ -2979,9 +2481,6 @@
     <t>Filchakov</t>
   </si>
   <si>
-    <t>12/31/1946</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
@@ -2991,9 +2490,6 @@
     <t>Eivers</t>
   </si>
   <si>
-    <t>11/18/1998</t>
-  </si>
-  <si>
     <t>Hilary</t>
   </si>
   <si>
@@ -3003,9 +2499,6 @@
     <t>Cordaroy</t>
   </si>
   <si>
-    <t>10/16/1981</t>
-  </si>
-  <si>
     <t>Daisie</t>
   </si>
   <si>
@@ -3015,9 +2508,6 @@
     <t>Swallwell</t>
   </si>
   <si>
-    <t>05/30/1973</t>
-  </si>
-  <si>
     <t>Ashleigh</t>
   </si>
   <si>
@@ -3027,9 +2517,6 @@
     <t>Kleinsmuntz</t>
   </si>
   <si>
-    <t>07/31/1949</t>
-  </si>
-  <si>
     <t>Melitta</t>
   </si>
   <si>
@@ -3054,9 +2541,6 @@
     <t>Nursey</t>
   </si>
   <si>
-    <t>10/27/1982</t>
-  </si>
-  <si>
     <t>Orella</t>
   </si>
   <si>
@@ -3102,9 +2586,6 @@
     <t>Matyja</t>
   </si>
   <si>
-    <t>02/15/1963</t>
-  </si>
-  <si>
     <t>Fidelity</t>
   </si>
   <si>
@@ -3114,9 +2595,6 @@
     <t>Halpen</t>
   </si>
   <si>
-    <t>11/25/1953</t>
-  </si>
-  <si>
     <t>Waylen</t>
   </si>
   <si>
@@ -3126,9 +2604,6 @@
     <t>Godsell</t>
   </si>
   <si>
-    <t>03/13/1967</t>
-  </si>
-  <si>
     <t>Emelina</t>
   </si>
   <si>
@@ -3138,9 +2613,6 @@
     <t>Dinning</t>
   </si>
   <si>
-    <t>10/21/1942</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
@@ -3159,9 +2631,6 @@
     <t>Wapplington</t>
   </si>
   <si>
-    <t>11/22/1948</t>
-  </si>
-  <si>
     <t>Ulises</t>
   </si>
   <si>
@@ -3180,9 +2649,6 @@
     <t>Sicely</t>
   </si>
   <si>
-    <t>05/29/1994</t>
-  </si>
-  <si>
     <t>Jeni</t>
   </si>
   <si>
@@ -3192,9 +2658,6 @@
     <t>Job</t>
   </si>
   <si>
-    <t>07/28/1994</t>
-  </si>
-  <si>
     <t>Ilsa</t>
   </si>
   <si>
@@ -3231,9 +2694,6 @@
     <t>Bernat</t>
   </si>
   <si>
-    <t>07/28/1971</t>
-  </si>
-  <si>
     <t>Ezequiel</t>
   </si>
   <si>
@@ -3243,9 +2703,6 @@
     <t>Sinderson</t>
   </si>
   <si>
-    <t>11/15/1997</t>
-  </si>
-  <si>
     <t>Mersey</t>
   </si>
   <si>
@@ -3262,13 +2719,913 @@
   </si>
   <si>
     <t>idDueño</t>
+  </si>
+  <si>
+    <t>fnacimiento</t>
+  </si>
+  <si>
+    <t>2000-01-17</t>
+  </si>
+  <si>
+    <t>1966-12-27</t>
+  </si>
+  <si>
+    <t>1956-08-01</t>
+  </si>
+  <si>
+    <t>1961-08-28</t>
+  </si>
+  <si>
+    <t>1976-10-29</t>
+  </si>
+  <si>
+    <t>1952-05-21</t>
+  </si>
+  <si>
+    <t>1987-06-22</t>
+  </si>
+  <si>
+    <t>1997-12-13</t>
+  </si>
+  <si>
+    <t>1992-01-08</t>
+  </si>
+  <si>
+    <t>1958-09-18</t>
+  </si>
+  <si>
+    <t>1952-01-19</t>
+  </si>
+  <si>
+    <t>1978-11-13</t>
+  </si>
+  <si>
+    <t>1982-04-05</t>
+  </si>
+  <si>
+    <t>1969-07-03</t>
+  </si>
+  <si>
+    <t>1966-02-22</t>
+  </si>
+  <si>
+    <t>1974-04-02</t>
+  </si>
+  <si>
+    <t>1960-08-16</t>
+  </si>
+  <si>
+    <t>1984-05-30</t>
+  </si>
+  <si>
+    <t>1974-10-10</t>
+  </si>
+  <si>
+    <t>1997-08-29</t>
+  </si>
+  <si>
+    <t>1977-08-25</t>
+  </si>
+  <si>
+    <t>1984-05-22</t>
+  </si>
+  <si>
+    <t>1977-10-23</t>
+  </si>
+  <si>
+    <t>1982-01-19</t>
+  </si>
+  <si>
+    <t>1964-10-27</t>
+  </si>
+  <si>
+    <t>1995-08-16</t>
+  </si>
+  <si>
+    <t>1990-05-05</t>
+  </si>
+  <si>
+    <t>1970-01-24</t>
+  </si>
+  <si>
+    <t>1989-09-09</t>
+  </si>
+  <si>
+    <t>1958-02-22</t>
+  </si>
+  <si>
+    <t>1974-05-05</t>
+  </si>
+  <si>
+    <t>1967-07-16</t>
+  </si>
+  <si>
+    <t>1985-01-30</t>
+  </si>
+  <si>
+    <t>2000-05-27</t>
+  </si>
+  <si>
+    <t>1973-08-06</t>
+  </si>
+  <si>
+    <t>1997-10-23</t>
+  </si>
+  <si>
+    <t>1961-09-06</t>
+  </si>
+  <si>
+    <t>1957-09-21</t>
+  </si>
+  <si>
+    <t>1968-06-28</t>
+  </si>
+  <si>
+    <t>1980-11-29</t>
+  </si>
+  <si>
+    <t>1988-09-21</t>
+  </si>
+  <si>
+    <t>1992-03-21</t>
+  </si>
+  <si>
+    <t>1975-11-29</t>
+  </si>
+  <si>
+    <t>1994-10-02</t>
+  </si>
+  <si>
+    <t>1993-09-03</t>
+  </si>
+  <si>
+    <t>1985-10-29</t>
+  </si>
+  <si>
+    <t>1984-12-28</t>
+  </si>
+  <si>
+    <t>1973-08-05</t>
+  </si>
+  <si>
+    <t>1969-02-26</t>
+  </si>
+  <si>
+    <t>1988-11-20</t>
+  </si>
+  <si>
+    <t>1997-01-09</t>
+  </si>
+  <si>
+    <t>1977-12-26</t>
+  </si>
+  <si>
+    <t>1958-04-01</t>
+  </si>
+  <si>
+    <t>1982-06-17</t>
+  </si>
+  <si>
+    <t>1989-01-29</t>
+  </si>
+  <si>
+    <t>1987-11-03</t>
+  </si>
+  <si>
+    <t>1980-02-24</t>
+  </si>
+  <si>
+    <t>1997-12-07</t>
+  </si>
+  <si>
+    <t>1950-07-17</t>
+  </si>
+  <si>
+    <t>1980-06-01</t>
+  </si>
+  <si>
+    <t>1976-09-08</t>
+  </si>
+  <si>
+    <t>1963-12-22</t>
+  </si>
+  <si>
+    <t>1996-07-06</t>
+  </si>
+  <si>
+    <t>1983-10-08</t>
+  </si>
+  <si>
+    <t>1957-04-19</t>
+  </si>
+  <si>
+    <t>1992-05-20</t>
+  </si>
+  <si>
+    <t>1996-09-20</t>
+  </si>
+  <si>
+    <t>1970-12-15</t>
+  </si>
+  <si>
+    <t>1956-06-03</t>
+  </si>
+  <si>
+    <t>1951-04-30</t>
+  </si>
+  <si>
+    <t>1959-10-08</t>
+  </si>
+  <si>
+    <t>1960-09-24</t>
+  </si>
+  <si>
+    <t>1967-10-01</t>
+  </si>
+  <si>
+    <t>1975-12-29</t>
+  </si>
+  <si>
+    <t>1971-10-24</t>
+  </si>
+  <si>
+    <t>1989-10-13</t>
+  </si>
+  <si>
+    <t>1976-04-25</t>
+  </si>
+  <si>
+    <t>1982-03-01</t>
+  </si>
+  <si>
+    <t>1964-01-10</t>
+  </si>
+  <si>
+    <t>1957-06-23</t>
+  </si>
+  <si>
+    <t>1974-03-19</t>
+  </si>
+  <si>
+    <t>1998-05-16</t>
+  </si>
+  <si>
+    <t>1991-01-21</t>
+  </si>
+  <si>
+    <t>1996-09-22</t>
+  </si>
+  <si>
+    <t>1950-03-12</t>
+  </si>
+  <si>
+    <t>1990-09-11</t>
+  </si>
+  <si>
+    <t>1988-03-10</t>
+  </si>
+  <si>
+    <t>1993-10-15</t>
+  </si>
+  <si>
+    <t>1977-02-17</t>
+  </si>
+  <si>
+    <t>1976-08-15</t>
+  </si>
+  <si>
+    <t>1991-02-24</t>
+  </si>
+  <si>
+    <t>1965-12-16</t>
+  </si>
+  <si>
+    <t>1950-08-29</t>
+  </si>
+  <si>
+    <t>1998-05-27</t>
+  </si>
+  <si>
+    <t>1957-06-16</t>
+  </si>
+  <si>
+    <t>1968-11-04</t>
+  </si>
+  <si>
+    <t>1970-02-13</t>
+  </si>
+  <si>
+    <t>1957-09-17</t>
+  </si>
+  <si>
+    <t>1971-04-17</t>
+  </si>
+  <si>
+    <t>1961-02-26</t>
+  </si>
+  <si>
+    <t>1958-04-12</t>
+  </si>
+  <si>
+    <t>1975-10-07</t>
+  </si>
+  <si>
+    <t>1987-11-10</t>
+  </si>
+  <si>
+    <t>1984-09-09</t>
+  </si>
+  <si>
+    <t>1989-11-07</t>
+  </si>
+  <si>
+    <t>1951-10-06</t>
+  </si>
+  <si>
+    <t>1954-12-23</t>
+  </si>
+  <si>
+    <t>1987-12-28</t>
+  </si>
+  <si>
+    <t>1993-07-29</t>
+  </si>
+  <si>
+    <t>1983-06-09</t>
+  </si>
+  <si>
+    <t>1986-03-21</t>
+  </si>
+  <si>
+    <t>1994-01-27</t>
+  </si>
+  <si>
+    <t>1973-02-02</t>
+  </si>
+  <si>
+    <t>1991-09-23</t>
+  </si>
+  <si>
+    <t>1989-03-12</t>
+  </si>
+  <si>
+    <t>1953-01-20</t>
+  </si>
+  <si>
+    <t>1963-06-08</t>
+  </si>
+  <si>
+    <t>1953-02-11</t>
+  </si>
+  <si>
+    <t>1967-01-21</t>
+  </si>
+  <si>
+    <t>1970-12-21</t>
+  </si>
+  <si>
+    <t>1984-02-23</t>
+  </si>
+  <si>
+    <t>1969-01-13</t>
+  </si>
+  <si>
+    <t>1976-01-11</t>
+  </si>
+  <si>
+    <t>1998-06-07</t>
+  </si>
+  <si>
+    <t>1983-07-19</t>
+  </si>
+  <si>
+    <t>1960-06-28</t>
+  </si>
+  <si>
+    <t>1957-09-19</t>
+  </si>
+  <si>
+    <t>1953-12-20</t>
+  </si>
+  <si>
+    <t>1998-08-18</t>
+  </si>
+  <si>
+    <t>1956-01-03</t>
+  </si>
+  <si>
+    <t>1959-12-20</t>
+  </si>
+  <si>
+    <t>1951-09-02</t>
+  </si>
+  <si>
+    <t>1972-11-14</t>
+  </si>
+  <si>
+    <t>1971-03-11</t>
+  </si>
+  <si>
+    <t>1988-01-04</t>
+  </si>
+  <si>
+    <t>1975-01-12</t>
+  </si>
+  <si>
+    <t>1960-05-23</t>
+  </si>
+  <si>
+    <t>1956-04-22</t>
+  </si>
+  <si>
+    <t>1950-08-22</t>
+  </si>
+  <si>
+    <t>1950-01-22</t>
+  </si>
+  <si>
+    <t>1996-01-27</t>
+  </si>
+  <si>
+    <t>1954-02-15</t>
+  </si>
+  <si>
+    <t>1967-05-12</t>
+  </si>
+  <si>
+    <t>1969-02-19</t>
+  </si>
+  <si>
+    <t>1989-10-28</t>
+  </si>
+  <si>
+    <t>1951-07-20</t>
+  </si>
+  <si>
+    <t>1981-02-25</t>
+  </si>
+  <si>
+    <t>1988-01-27</t>
+  </si>
+  <si>
+    <t>1961-09-01</t>
+  </si>
+  <si>
+    <t>1984-03-04</t>
+  </si>
+  <si>
+    <t>1951-04-01</t>
+  </si>
+  <si>
+    <t>1998-09-21</t>
+  </si>
+  <si>
+    <t>1971-02-15</t>
+  </si>
+  <si>
+    <t>1999-08-13</t>
+  </si>
+  <si>
+    <t>1968-01-16</t>
+  </si>
+  <si>
+    <t>1952-06-06</t>
+  </si>
+  <si>
+    <t>1966-07-24</t>
+  </si>
+  <si>
+    <t>1996-09-23</t>
+  </si>
+  <si>
+    <t>1994-07-26</t>
+  </si>
+  <si>
+    <t>1978-01-03</t>
+  </si>
+  <si>
+    <t>1968-07-18</t>
+  </si>
+  <si>
+    <t>1956-08-29</t>
+  </si>
+  <si>
+    <t>1991-04-10</t>
+  </si>
+  <si>
+    <t>1983-07-30</t>
+  </si>
+  <si>
+    <t>1985-02-20</t>
+  </si>
+  <si>
+    <t>1950-07-06</t>
+  </si>
+  <si>
+    <t>1981-01-08</t>
+  </si>
+  <si>
+    <t>1960-05-01</t>
+  </si>
+  <si>
+    <t>1953-04-04</t>
+  </si>
+  <si>
+    <t>1962-01-25</t>
+  </si>
+  <si>
+    <t>1988-10-10</t>
+  </si>
+  <si>
+    <t>1963-03-20</t>
+  </si>
+  <si>
+    <t>1970-07-26</t>
+  </si>
+  <si>
+    <t>1966-06-21</t>
+  </si>
+  <si>
+    <t>1963-11-13</t>
+  </si>
+  <si>
+    <t>1980-02-14</t>
+  </si>
+  <si>
+    <t>1984-03-06</t>
+  </si>
+  <si>
+    <t>1960-02-21</t>
+  </si>
+  <si>
+    <t>1994-11-20</t>
+  </si>
+  <si>
+    <t>1975-07-15</t>
+  </si>
+  <si>
+    <t>1962-04-27</t>
+  </si>
+  <si>
+    <t>1964-04-11</t>
+  </si>
+  <si>
+    <t>1990-10-07</t>
+  </si>
+  <si>
+    <t>1986-03-31</t>
+  </si>
+  <si>
+    <t>1981-05-17</t>
+  </si>
+  <si>
+    <t>1977-07-30</t>
+  </si>
+  <si>
+    <t>1994-01-30</t>
+  </si>
+  <si>
+    <t>1958-08-06</t>
+  </si>
+  <si>
+    <t>1965-01-31</t>
+  </si>
+  <si>
+    <t>1967-01-04</t>
+  </si>
+  <si>
+    <t>1990-07-05</t>
+  </si>
+  <si>
+    <t>1974-05-08</t>
+  </si>
+  <si>
+    <t>1993-10-28</t>
+  </si>
+  <si>
+    <t>1951-04-12</t>
+  </si>
+  <si>
+    <t>1962-12-13</t>
+  </si>
+  <si>
+    <t>1972-08-17</t>
+  </si>
+  <si>
+    <t>1967-12-29</t>
+  </si>
+  <si>
+    <t>1967-06-04</t>
+  </si>
+  <si>
+    <t>1988-11-06</t>
+  </si>
+  <si>
+    <t>1958-06-12</t>
+  </si>
+  <si>
+    <t>1953-12-09</t>
+  </si>
+  <si>
+    <t>1951-02-18</t>
+  </si>
+  <si>
+    <t>1968-03-07</t>
+  </si>
+  <si>
+    <t>1984-01-19</t>
+  </si>
+  <si>
+    <t>1967-12-12</t>
+  </si>
+  <si>
+    <t>1977-01-19</t>
+  </si>
+  <si>
+    <t>1972-01-08</t>
+  </si>
+  <si>
+    <t>1970-07-15</t>
+  </si>
+  <si>
+    <t>1987-11-17</t>
+  </si>
+  <si>
+    <t>1991-01-02</t>
+  </si>
+  <si>
+    <t>1999-02-13</t>
+  </si>
+  <si>
+    <t>1958-01-05</t>
+  </si>
+  <si>
+    <t>1955-01-24</t>
+  </si>
+  <si>
+    <t>1992-12-12</t>
+  </si>
+  <si>
+    <t>1971-03-13</t>
+  </si>
+  <si>
+    <t>1972-06-09</t>
+  </si>
+  <si>
+    <t>1961-11-03</t>
+  </si>
+  <si>
+    <t>1964-10-07</t>
+  </si>
+  <si>
+    <t>1988-09-29</t>
+  </si>
+  <si>
+    <t>1955-05-20</t>
+  </si>
+  <si>
+    <t>1986-05-10</t>
+  </si>
+  <si>
+    <t>1967-10-07</t>
+  </si>
+  <si>
+    <t>1975-11-13</t>
+  </si>
+  <si>
+    <t>1972-12-03</t>
+  </si>
+  <si>
+    <t>1967-04-01</t>
+  </si>
+  <si>
+    <t>1990-07-02</t>
+  </si>
+  <si>
+    <t>1990-04-20</t>
+  </si>
+  <si>
+    <t>1959-08-25</t>
+  </si>
+  <si>
+    <t>1987-01-21</t>
+  </si>
+  <si>
+    <t>1956-01-23</t>
+  </si>
+  <si>
+    <t>1979-01-06</t>
+  </si>
+  <si>
+    <t>1950-09-04</t>
+  </si>
+  <si>
+    <t>1986-12-11</t>
+  </si>
+  <si>
+    <t>1953-04-12</t>
+  </si>
+  <si>
+    <t>1964-07-13</t>
+  </si>
+  <si>
+    <t>1974-05-12</t>
+  </si>
+  <si>
+    <t>1960-02-25</t>
+  </si>
+  <si>
+    <t>1977-11-21</t>
+  </si>
+  <si>
+    <t>1953-08-09</t>
+  </si>
+  <si>
+    <t>1992-01-29</t>
+  </si>
+  <si>
+    <t>1978-12-07</t>
+  </si>
+  <si>
+    <t>1970-01-25</t>
+  </si>
+  <si>
+    <t>1959-05-01</t>
+  </si>
+  <si>
+    <t>1972-02-14</t>
+  </si>
+  <si>
+    <t>1972-10-27</t>
+  </si>
+  <si>
+    <t>1957-08-21</t>
+  </si>
+  <si>
+    <t>1988-08-29</t>
+  </si>
+  <si>
+    <t>1984-05-29</t>
+  </si>
+  <si>
+    <t>1980-04-06</t>
+  </si>
+  <si>
+    <t>1985-07-07</t>
+  </si>
+  <si>
+    <t>1959-06-26</t>
+  </si>
+  <si>
+    <t>1962-02-01</t>
+  </si>
+  <si>
+    <t>1955-10-20</t>
+  </si>
+  <si>
+    <t>1986-01-19</t>
+  </si>
+  <si>
+    <t>1973-11-09</t>
+  </si>
+  <si>
+    <t>1980-07-16</t>
+  </si>
+  <si>
+    <t>1959-01-17</t>
+  </si>
+  <si>
+    <t>1967-01-07</t>
+  </si>
+  <si>
+    <t>1974-02-20</t>
+  </si>
+  <si>
+    <t>1972-02-24</t>
+  </si>
+  <si>
+    <t>1959-04-19</t>
+  </si>
+  <si>
+    <t>1959-08-19</t>
+  </si>
+  <si>
+    <t>1977-11-05</t>
+  </si>
+  <si>
+    <t>1977-10-16</t>
+  </si>
+  <si>
+    <t>1967-12-20</t>
+  </si>
+  <si>
+    <t>1956-02-03</t>
+  </si>
+  <si>
+    <t>1999-10-30</t>
+  </si>
+  <si>
+    <t>1976-10-22</t>
+  </si>
+  <si>
+    <t>1992-08-06</t>
+  </si>
+  <si>
+    <t>1963-01-22</t>
+  </si>
+  <si>
+    <t>1993-11-11</t>
+  </si>
+  <si>
+    <t>1951-06-15</t>
+  </si>
+  <si>
+    <t>1974-11-12</t>
+  </si>
+  <si>
+    <t>1980-03-04</t>
+  </si>
+  <si>
+    <t>1993-05-21</t>
+  </si>
+  <si>
+    <t>1971-01-25</t>
+  </si>
+  <si>
+    <t>1969-02-09</t>
+  </si>
+  <si>
+    <t>1951-02-27</t>
+  </si>
+  <si>
+    <t>1951-11-07</t>
+  </si>
+  <si>
+    <t>1961-03-15</t>
+  </si>
+  <si>
+    <t>1967-11-06</t>
+  </si>
+  <si>
+    <t>1972-06-04</t>
+  </si>
+  <si>
+    <t>1973-01-04</t>
+  </si>
+  <si>
+    <t>1969-11-21</t>
+  </si>
+  <si>
+    <t>1986-09-08</t>
+  </si>
+  <si>
+    <t>1989-02-21</t>
+  </si>
+  <si>
+    <t>1976-11-20</t>
+  </si>
+  <si>
+    <t>1975-03-02</t>
+  </si>
+  <si>
+    <t>1966-07-15</t>
+  </si>
+  <si>
+    <t>2000-02-17</t>
+  </si>
+  <si>
+    <t>1980-05-10</t>
+  </si>
+  <si>
+    <t>1989-05-19</t>
+  </si>
+  <si>
+    <t>1992-04-02</t>
+  </si>
+  <si>
+    <t>1981-02-03</t>
+  </si>
+  <si>
+    <t>1977-04-10</t>
+  </si>
+  <si>
+    <t>1976-10-10</t>
+  </si>
+  <si>
+    <t>1955-05-03</t>
+  </si>
+  <si>
+    <t>1995-04-17</t>
+  </si>
+  <si>
+    <t>1977-12-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3402,6 +3759,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3701,7 +4063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3744,17 +4106,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3792,6 +4153,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -4076,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,5119 +4452,5119 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>899</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>19845</v>
+      <c r="B2" s="2" t="s">
+        <v>901</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>22772</v>
+      <c r="B3" s="2" t="s">
+        <v>902</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>25366</v>
+      <c r="B5" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
+      <c r="B7" s="2" t="s">
+        <v>906</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+      <c r="B8" s="2" t="s">
+        <v>907</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
+      <c r="B9" s="2" t="s">
+        <v>908</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>17142</v>
+      <c r="B10" s="2" t="s">
+        <v>909</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
+      <c r="B11" s="2" t="s">
+        <v>910</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>34069</v>
+      <c r="B12" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
+      <c r="B13" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>14739</v>
+      <c r="B14" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>21469</v>
+      <c r="B15" s="2" t="s">
+        <v>914</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
+      <c r="B16" s="2" t="s">
+        <v>915</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
+      <c r="B17" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>19976</v>
+      <c r="B18" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>27456</v>
+      <c r="B19" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
+      <c r="B20" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
+      <c r="B21" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>36077</v>
+      <c r="B22" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
+      <c r="B23" s="2" t="s">
+        <v>922</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>34222</v>
+      <c r="B24" s="2" t="s">
+        <v>923</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
+      <c r="B25" s="2" t="s">
+        <v>924</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
+      <c r="B26" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>22014</v>
+      <c r="B27" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>96</v>
+      <c r="B28" s="2" t="s">
+        <v>927</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>100</v>
+      <c r="B29" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
+      <c r="B30" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
+      <c r="B31" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>19878</v>
+      <c r="B32" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
+      <c r="B33" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>30475</v>
+      <c r="B34" s="2" t="s">
+        <v>933</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>122</v>
+      <c r="B35" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>126</v>
+      <c r="B36" s="2" t="s">
+        <v>935</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>130</v>
+      <c r="B37" s="2" t="s">
+        <v>936</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
-        <v>32331</v>
+      <c r="B38" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
-        <v>33635</v>
+      <c r="B39" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>140</v>
+      <c r="B40" s="2" t="s">
+        <v>939</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>144</v>
+      <c r="B41" s="2" t="s">
+        <v>940</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>26122</v>
+      <c r="B42" s="2" t="s">
+        <v>941</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>151</v>
+      <c r="B43" s="2" t="s">
+        <v>942</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>21524</v>
+      <c r="B44" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>158</v>
+      <c r="B45" s="2" t="s">
+        <v>944</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>162</v>
+      <c r="B46" s="2" t="s">
+        <v>945</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
-        <v>25759</v>
+      <c r="B47" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>169</v>
+      <c r="B48" s="2" t="s">
+        <v>947</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>173</v>
+      <c r="B49" s="2" t="s">
+        <v>948</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>177</v>
+      <c r="B50" s="2" t="s">
+        <v>949</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>181</v>
+      <c r="B51" s="2" t="s">
+        <v>950</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
-        <v>27609</v>
+      <c r="B52" s="2" t="s">
+        <v>951</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
-        <v>17422</v>
+      <c r="B53" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>191</v>
+      <c r="B54" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>195</v>
+      <c r="B55" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>199</v>
+      <c r="B56" s="2" t="s">
+        <v>955</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
-        <v>36528</v>
+      <c r="B57" s="2" t="s">
+        <v>956</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>206</v>
+      <c r="B58" s="2" t="s">
+        <v>957</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>210</v>
+      <c r="B59" s="2" t="s">
+        <v>958</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
-        <v>15802</v>
+      <c r="B60" s="2" t="s">
+        <v>959</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>217</v>
+      <c r="B61" s="2" t="s">
+        <v>960</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>221</v>
+      <c r="B62" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
-        <v>25996</v>
+      <c r="B63" s="2" t="s">
+        <v>962</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>228</v>
+      <c r="B64" s="2" t="s">
+        <v>963</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
-        <v>24600</v>
+      <c r="B65" s="2" t="s">
+        <v>964</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>235</v>
+      <c r="B66" s="2" t="s">
+        <v>965</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>239</v>
+      <c r="B67" s="2" t="s">
+        <v>966</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>243</v>
+      <c r="B68" s="2" t="s">
+        <v>967</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
-        <v>16539</v>
+      <c r="B69" s="2" t="s">
+        <v>968</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
-        <v>16773</v>
+      <c r="B70" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>253</v>
+      <c r="B71" s="2" t="s">
+        <v>970</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>257</v>
+      <c r="B72" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>261</v>
+      <c r="B73" s="2" t="s">
+        <v>972</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
-        <v>17179</v>
+      <c r="B74" s="2" t="s">
+        <v>973</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
-        <v>33395</v>
+      <c r="B75" s="2" t="s">
+        <v>974</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>271</v>
+      <c r="B76" s="2" t="s">
+        <v>975</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
-        <v>29046</v>
+      <c r="B77" s="2" t="s">
+        <v>976</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>278</v>
+      <c r="B78" s="2" t="s">
+        <v>977</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>282</v>
+      <c r="B79" s="2" t="s">
+        <v>978</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>286</v>
+      <c r="B80" s="2" t="s">
+        <v>979</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>290</v>
+      <c r="B81" s="2" t="s">
+        <v>980</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
-        <v>17692</v>
+      <c r="B82" s="2" t="s">
+        <v>981</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>297</v>
+      <c r="B83" s="2" t="s">
+        <v>982</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>301</v>
+      <c r="B84" s="2" t="s">
+        <v>983</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>305</v>
+      <c r="B85" s="2" t="s">
+        <v>984</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
-        <v>31201</v>
+      <c r="B86" s="2" t="s">
+        <v>985</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>312</v>
+      <c r="B87" s="2" t="s">
+        <v>986</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>316</v>
+      <c r="B88" s="2" t="s">
+        <v>987</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
-        <v>19367</v>
+      <c r="B89" s="2" t="s">
+        <v>988</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>323</v>
+      <c r="B90" s="2" t="s">
+        <v>989</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
-        <v>15740</v>
+      <c r="B91" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
-        <v>17809</v>
+      <c r="B92" s="2" t="s">
+        <v>991</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
-        <v>31390</v>
+      <c r="B93" s="2" t="s">
+        <v>992</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>336</v>
+      <c r="B94" s="2" t="s">
+        <v>993</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>340</v>
+      <c r="B95" s="2" t="s">
+        <v>994</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>344</v>
+      <c r="B96" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>348</v>
+      <c r="B97" s="2" t="s">
+        <v>996</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
-        <v>29528</v>
+      <c r="B98" s="2" t="s">
+        <v>997</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
-        <v>15139</v>
+      <c r="B99" s="2" t="s">
+        <v>998</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
-        <v>26756</v>
+      <c r="B100" s="2" t="s">
+        <v>999</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>361</v>
+      <c r="B101" s="2" t="s">
+        <v>1000</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
-        <v>14987</v>
+      <c r="B102" s="2" t="s">
+        <v>1001</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>368</v>
+      <c r="B103" s="2" t="s">
+        <v>1002</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
-        <v>32450</v>
+      <c r="B104" s="2" t="s">
+        <v>1003</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
-        <v>14713</v>
+      <c r="B105" s="2" t="s">
+        <v>1004</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>378</v>
+      <c r="B106" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
-        <v>18936</v>
+      <c r="B107" s="2" t="s">
+        <v>1006</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
-        <v>33097</v>
+      <c r="B108" s="2" t="s">
+        <v>1007</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>388</v>
+      <c r="B109" s="2" t="s">
+        <v>1008</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>392</v>
+      <c r="B110" s="2" t="s">
+        <v>1009</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
-        <v>19179</v>
+      <c r="B111" s="2" t="s">
+        <v>1010</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>399</v>
+      <c r="B112" s="2" t="s">
+        <v>1011</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>403</v>
+      <c r="B113" s="2" t="s">
+        <v>1012</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>407</v>
+      <c r="B114" s="2" t="s">
+        <v>1013</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>411</v>
+      <c r="B115" s="2" t="s">
+        <v>1014</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
-        <v>36290</v>
+      <c r="B116" s="2" t="s">
+        <v>1015</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
-        <v>15564</v>
+      <c r="B117" s="2" t="s">
+        <v>1016</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>421</v>
+      <c r="B118" s="2" t="s">
+        <v>1017</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>425</v>
+      <c r="B119" s="2" t="s">
+        <v>1018</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
-        <v>29563</v>
+      <c r="B120" s="2" t="s">
+        <v>1019</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>432</v>
+      <c r="B121" s="2" t="s">
+        <v>1020</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>436</v>
+      <c r="B122" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>440</v>
+      <c r="B123" s="2" t="s">
+        <v>1022</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>444</v>
+      <c r="B124" s="2" t="s">
+        <v>1023</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>447</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
-        <v>16387</v>
+      <c r="B125" s="2" t="s">
+        <v>1024</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
-        <v>33911</v>
+      <c r="B126" s="2" t="s">
+        <v>1025</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
-        <v>32238</v>
+      <c r="B127" s="2" t="s">
+        <v>1026</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>456</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>457</v>
+      <c r="B128" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>458</v>
+        <v>381</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
-        <v>29284</v>
+      <c r="B129" s="2" t="s">
+        <v>1028</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>464</v>
+      <c r="B130" s="2" t="s">
+        <v>1029</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>465</v>
+        <v>387</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>466</v>
+        <v>388</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>468</v>
+      <c r="B131" s="2" t="s">
+        <v>1030</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>471</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
-        <v>32667</v>
+      <c r="B132" s="2" t="s">
+        <v>1031</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>472</v>
+        <v>393</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
-        <v>31847</v>
+      <c r="B133" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
-        <v>24782</v>
+      <c r="B134" s="2" t="s">
+        <v>1033</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>481</v>
+      <c r="B135" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>485</v>
+      <c r="B136" s="2" t="s">
+        <v>1035</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
-        <v>30592</v>
+      <c r="B137" s="2" t="s">
+        <v>1036</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
-        <v>25326</v>
+      <c r="B138" s="2" t="s">
+        <v>1037</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>495</v>
+      <c r="B139" s="2" t="s">
+        <v>1038</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
-        <v>23686</v>
+      <c r="B140" s="2" t="s">
+        <v>1039</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>500</v>
+        <v>418</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>501</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>502</v>
+      <c r="B141" s="2" t="s">
+        <v>1040</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>505</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>506</v>
+      <c r="B142" s="2" t="s">
+        <v>1041</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>507</v>
+        <v>423</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>509</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
-        <v>27120</v>
+      <c r="B143" s="2" t="s">
+        <v>1042</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>510</v>
+        <v>426</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>511</v>
+        <v>427</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>512</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>513</v>
+      <c r="B144" s="2" t="s">
+        <v>1043</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>514</v>
+        <v>429</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>515</v>
+        <v>430</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>516</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
-        <v>20425</v>
+      <c r="B145" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>517</v>
+        <v>432</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>518</v>
+        <v>433</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>519</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
-        <v>14926</v>
+      <c r="B146" s="2" t="s">
+        <v>1045</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>520</v>
+        <v>435</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>521</v>
+        <v>436</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>522</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>523</v>
+      <c r="B147" s="2" t="s">
+        <v>1046</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>524</v>
+        <v>438</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>525</v>
+        <v>439</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>527</v>
+      <c r="B148" s="2" t="s">
+        <v>1047</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>530</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>531</v>
+      <c r="B149" s="2" t="s">
+        <v>1048</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>532</v>
+        <v>444</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>534</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>535</v>
+      <c r="B150" s="2" t="s">
+        <v>1049</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="2">
-        <v>20702</v>
+      <c r="B151" s="2" t="s">
+        <v>1050</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>542</v>
+      <c r="B152" s="2" t="s">
+        <v>1051</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="2">
-        <v>20394</v>
+      <c r="B153" s="2" t="s">
+        <v>1052</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>549</v>
+      <c r="B154" s="2" t="s">
+        <v>1053</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>551</v>
+        <v>460</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>552</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
-        <v>16077</v>
+      <c r="B155" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>554</v>
+        <v>463</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>556</v>
+      <c r="B156" s="2" t="s">
+        <v>1055</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>560</v>
+      <c r="B157" s="2" t="s">
+        <v>1056</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>561</v>
+        <v>468</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>562</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>563</v>
+      <c r="B158" s="2" t="s">
+        <v>1057</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>564</v>
+        <v>470</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
-        <v>18385</v>
+      <c r="B159" s="2" t="s">
+        <v>1058</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>569</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>570</v>
+      <c r="B160" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>574</v>
+      <c r="B161" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>575</v>
+        <v>479</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>576</v>
+        <v>480</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>577</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>578</v>
+      <c r="B162" s="2" t="s">
+        <v>1061</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>579</v>
+        <v>482</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>580</v>
+        <v>483</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>581</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>582</v>
+      <c r="B163" s="2" t="s">
+        <v>1062</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>585</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="2">
-        <v>35378</v>
+      <c r="B164" s="2" t="s">
+        <v>1063</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>586</v>
+        <v>488</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>589</v>
+      <c r="B165" s="2" t="s">
+        <v>1064</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>593</v>
+      <c r="B166" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>595</v>
+        <v>495</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>596</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
-        <v>21610</v>
+      <c r="B167" s="2" t="s">
+        <v>1066</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>597</v>
+        <v>497</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>598</v>
+        <v>498</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
-        <v>17573</v>
+      <c r="B168" s="2" t="s">
+        <v>1067</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>602</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>603</v>
+      <c r="B169" s="2" t="s">
+        <v>1068</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>604</v>
+        <v>503</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>606</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>607</v>
+      <c r="B170" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>608</v>
+        <v>506</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>609</v>
+        <v>507</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>611</v>
+      <c r="B171" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>613</v>
+        <v>510</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>614</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>615</v>
+      <c r="B172" s="2" t="s">
+        <v>1071</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>616</v>
+        <v>512</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>617</v>
+        <v>513</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>618</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>619</v>
+      <c r="B173" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>621</v>
+        <v>516</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>622</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>623</v>
+      <c r="B174" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>624</v>
+        <v>518</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>625</v>
+        <v>519</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>626</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>627</v>
+      <c r="B175" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>628</v>
+        <v>521</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>629</v>
+        <v>522</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>630</v>
+        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>631</v>
+      <c r="B176" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>632</v>
+        <v>524</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>633</v>
+        <v>525</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>634</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>635</v>
+      <c r="B177" s="2" t="s">
+        <v>1076</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>636</v>
+        <v>527</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>637</v>
+        <v>528</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>638</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="2">
-        <v>27914</v>
+      <c r="B178" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>639</v>
+        <v>530</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>640</v>
+        <v>531</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>641</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>642</v>
+      <c r="B179" s="2" t="s">
+        <v>1078</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>643</v>
+        <v>533</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>644</v>
+        <v>534</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>645</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>646</v>
+      <c r="B180" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>647</v>
+        <v>536</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>648</v>
+        <v>537</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>649</v>
+        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>650</v>
+      <c r="B181" s="2" t="s">
+        <v>1080</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>652</v>
+        <v>540</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>653</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="2">
-        <v>23782</v>
+      <c r="B182" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>654</v>
+        <v>542</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>655</v>
+        <v>543</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>656</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>657</v>
+      <c r="B183" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>658</v>
+        <v>545</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>659</v>
+        <v>546</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>660</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
-        <v>26272</v>
+      <c r="B184" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>662</v>
+        <v>549</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>663</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>664</v>
+      <c r="B185" s="2" t="s">
+        <v>1084</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>665</v>
+        <v>551</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>666</v>
+        <v>552</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>667</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="2">
-        <v>23255</v>
+      <c r="B186" s="2" t="s">
+        <v>1085</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>668</v>
+        <v>554</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>669</v>
+        <v>555</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>670</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>671</v>
+      <c r="B187" s="2" t="s">
+        <v>1086</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>672</v>
+        <v>557</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="2">
-        <v>27674</v>
+      <c r="B188" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>675</v>
+        <v>560</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>676</v>
+        <v>561</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>677</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>678</v>
+      <c r="B189" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>679</v>
+        <v>563</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>680</v>
+        <v>564</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>681</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="2">
-        <v>25423</v>
+      <c r="B190" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>682</v>
+        <v>566</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>683</v>
+        <v>567</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>684</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="2">
-        <v>34853</v>
+      <c r="B191" s="2" t="s">
+        <v>1090</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>685</v>
+        <v>569</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>686</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>687</v>
+      <c r="B192" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>688</v>
+        <v>571</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>689</v>
+        <v>572</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>690</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>691</v>
+      <c r="B193" s="2" t="s">
+        <v>1092</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>692</v>
+        <v>574</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>693</v>
+        <v>575</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>694</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="2">
-        <v>19485</v>
+      <c r="B194" s="2" t="s">
+        <v>1093</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>695</v>
+        <v>577</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>696</v>
+        <v>578</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>697</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="2">
-        <v>35377</v>
+      <c r="B195" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>698</v>
+        <v>580</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>699</v>
+        <v>581</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>700</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>701</v>
+      <c r="B196" s="2" t="s">
+        <v>1095</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>702</v>
+        <v>583</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>703</v>
+        <v>584</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>704</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>705</v>
+      <c r="B197" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>706</v>
+        <v>586</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>707</v>
+        <v>587</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>708</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>709</v>
+      <c r="B198" s="2" t="s">
+        <v>1097</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>710</v>
+        <v>589</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>711</v>
+        <v>590</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>712</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>713</v>
+      <c r="B199" s="2" t="s">
+        <v>1098</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>714</v>
+        <v>592</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>715</v>
+        <v>593</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>716</v>
+        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>717</v>
+      <c r="B200" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>718</v>
+        <v>595</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>719</v>
+        <v>596</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>720</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>721</v>
+      <c r="B201" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>722</v>
+        <v>598</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>723</v>
+        <v>599</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>724</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="2">
-        <v>17326</v>
+      <c r="B202" s="2" t="s">
+        <v>1101</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>725</v>
+        <v>601</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>726</v>
+        <v>602</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>727</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="2">
-        <v>23930</v>
+      <c r="B203" s="2" t="s">
+        <v>1102</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>728</v>
+        <v>604</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>729</v>
+        <v>605</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>730</v>
+        <v>606</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="2">
-        <v>20251</v>
+      <c r="B204" s="2" t="s">
+        <v>1103</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>731</v>
+        <v>607</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>732</v>
+        <v>608</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>734</v>
+      <c r="B205" s="2" t="s">
+        <v>1104</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>737</v>
+        <v>612</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>210</v>
+      <c r="B206" s="2" t="s">
+        <v>1105</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>739</v>
+        <v>614</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>740</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>741</v>
+      <c r="B207" s="2" t="s">
+        <v>1106</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>742</v>
+        <v>616</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>743</v>
+        <v>617</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>744</v>
+        <v>618</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>745</v>
+      <c r="B208" s="2" t="s">
+        <v>1107</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>746</v>
+        <v>619</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>747</v>
+        <v>620</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>748</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>749</v>
+      <c r="B209" s="2" t="s">
+        <v>1108</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>750</v>
+        <v>622</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>751</v>
+        <v>623</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>752</v>
+        <v>624</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="2">
-        <v>25245</v>
+      <c r="B210" s="2" t="s">
+        <v>1109</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>753</v>
+        <v>625</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>754</v>
+        <v>626</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>755</v>
+        <v>627</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>756</v>
+      <c r="B211" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>757</v>
+        <v>628</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>758</v>
+        <v>629</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>759</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
-        <v>27701</v>
+      <c r="B212" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>760</v>
+        <v>631</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>761</v>
+        <v>632</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>762</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>763</v>
+      <c r="B213" s="2" t="s">
+        <v>1112</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>764</v>
+        <v>634</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>765</v>
+        <v>635</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>766</v>
+        <v>636</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>767</v>
+      <c r="B214" s="2" t="s">
+        <v>1113</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>768</v>
+        <v>637</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>769</v>
+        <v>638</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>770</v>
+        <v>639</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="2">
-        <v>19637</v>
+      <c r="B215" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>771</v>
+        <v>640</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>772</v>
+        <v>641</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>773</v>
+        <v>642</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>774</v>
+      <c r="B216" s="2" t="s">
+        <v>1115</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>775</v>
+        <v>643</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>776</v>
+        <v>644</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>777</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>778</v>
+      <c r="B217" s="2" t="s">
+        <v>970</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>779</v>
+        <v>646</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>780</v>
+        <v>647</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>781</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>782</v>
+      <c r="B218" s="2" t="s">
+        <v>1116</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>784</v>
+        <v>650</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>785</v>
+        <v>651</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>786</v>
+      <c r="B219" s="2" t="s">
+        <v>1117</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>787</v>
+        <v>652</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>788</v>
+        <v>653</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>789</v>
+        <v>654</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>790</v>
+      <c r="B220" s="2" t="s">
+        <v>1118</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>791</v>
+        <v>655</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>792</v>
+        <v>656</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>793</v>
+        <v>657</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>794</v>
+      <c r="B221" s="2" t="s">
+        <v>1119</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>795</v>
+        <v>658</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>796</v>
+        <v>659</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>797</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="2">
-        <v>29587</v>
+      <c r="B222" s="2" t="s">
+        <v>1120</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>798</v>
+        <v>661</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>799</v>
+        <v>662</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>800</v>
+        <v>663</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>801</v>
+      <c r="B223" s="2" t="s">
+        <v>1121</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>802</v>
+        <v>664</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>803</v>
+        <v>665</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>804</v>
+        <v>666</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>805</v>
+      <c r="B224" s="2" t="s">
+        <v>1122</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>806</v>
+        <v>667</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>807</v>
+        <v>668</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>808</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="2">
-        <v>15037</v>
+      <c r="B225" s="2" t="s">
+        <v>1123</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>809</v>
+        <v>670</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>810</v>
+        <v>671</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>811</v>
+        <v>672</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>812</v>
+      <c r="B226" s="2" t="s">
+        <v>1124</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>813</v>
+        <v>673</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>814</v>
+        <v>674</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>815</v>
+        <v>675</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="2">
-        <v>14957</v>
+      <c r="B227" s="2" t="s">
+        <v>1125</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>816</v>
+        <v>676</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>817</v>
+        <v>677</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>818</v>
+        <v>678</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>819</v>
+      <c r="B228" s="2" t="s">
+        <v>1126</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>820</v>
+        <v>679</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>821</v>
+        <v>680</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>822</v>
+        <v>681</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>823</v>
+      <c r="B229" s="2" t="s">
+        <v>1127</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>824</v>
+        <v>682</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>825</v>
+        <v>683</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>826</v>
+        <v>684</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
-        <v>21976</v>
+      <c r="B230" s="2" t="s">
+        <v>1128</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>827</v>
+        <v>685</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>828</v>
+        <v>686</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>829</v>
+        <v>687</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="2">
-        <v>15198</v>
+      <c r="B231" s="2" t="s">
+        <v>1129</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>830</v>
+        <v>688</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>831</v>
+        <v>689</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>832</v>
+        <v>690</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>833</v>
+      <c r="B232" s="2" t="s">
+        <v>1130</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>834</v>
+        <v>691</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>835</v>
+        <v>692</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>836</v>
+        <v>693</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>837</v>
+      <c r="B233" s="2" t="s">
+        <v>1131</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>838</v>
+        <v>694</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>839</v>
+        <v>695</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>840</v>
+        <v>696</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="2">
-        <v>21042</v>
+      <c r="B234" s="2" t="s">
+        <v>1132</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>841</v>
+        <v>697</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>842</v>
+        <v>698</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>843</v>
+        <v>699</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>844</v>
+      <c r="B235" s="2" t="s">
+        <v>1133</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>845</v>
+        <v>700</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>846</v>
+        <v>701</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>847</v>
+        <v>702</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>848</v>
+      <c r="B236" s="2" t="s">
+        <v>1134</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>849</v>
+        <v>703</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>850</v>
+        <v>704</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>851</v>
+        <v>705</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="2">
-        <v>31237</v>
+      <c r="B237" s="2" t="s">
+        <v>1135</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>852</v>
+        <v>706</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>853</v>
+        <v>707</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>854</v>
+        <v>708</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="2">
-        <v>35775</v>
+      <c r="B238" s="2" t="s">
+        <v>1136</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>855</v>
+        <v>709</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>856</v>
+        <v>710</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>857</v>
+        <v>711</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
-        <v>25147</v>
+      <c r="B239" s="2" t="s">
+        <v>1137</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>858</v>
+        <v>712</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>859</v>
+        <v>713</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>860</v>
+        <v>714</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="2">
-        <v>36383</v>
+      <c r="B240" s="2" t="s">
+        <v>1138</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>861</v>
+        <v>715</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>862</v>
+        <v>716</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>863</v>
+        <v>717</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>864</v>
+      <c r="B241" s="2" t="s">
+        <v>1139</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>865</v>
+        <v>718</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>866</v>
+        <v>719</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>867</v>
+        <v>720</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="2">
-        <v>31753</v>
+      <c r="B242" s="2" t="s">
+        <v>1140</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>868</v>
+        <v>721</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>869</v>
+        <v>722</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>870</v>
+        <v>723</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>871</v>
+      <c r="B243" s="2" t="s">
+        <v>1141</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>872</v>
+        <v>724</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>873</v>
+        <v>725</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>874</v>
+        <v>726</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="2">
-        <v>35886</v>
+      <c r="B244" s="2" t="s">
+        <v>1142</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>875</v>
+        <v>727</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>876</v>
+        <v>728</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>877</v>
+        <v>729</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="2">
-        <v>22770</v>
+      <c r="B245" s="2" t="s">
+        <v>1143</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>879</v>
+        <v>731</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>880</v>
+        <v>732</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>881</v>
+      <c r="B246" s="2" t="s">
+        <v>1144</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>882</v>
+        <v>733</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>883</v>
+        <v>734</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>884</v>
+        <v>735</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="2">
-        <v>24484</v>
+      <c r="B247" s="2" t="s">
+        <v>1145</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>885</v>
+        <v>736</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>886</v>
+        <v>737</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>887</v>
+        <v>738</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>888</v>
+      <c r="B248" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>889</v>
+        <v>739</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>891</v>
+        <v>741</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>892</v>
+      <c r="B249" s="2" t="s">
+        <v>1147</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>893</v>
+        <v>742</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>894</v>
+        <v>743</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>895</v>
+        <v>744</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>896</v>
+      <c r="B250" s="2" t="s">
+        <v>1148</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>897</v>
+        <v>745</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>898</v>
+        <v>746</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>899</v>
+        <v>747</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>900</v>
+      <c r="B251" s="2" t="s">
+        <v>1149</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>901</v>
+        <v>748</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>902</v>
+        <v>749</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>903</v>
+        <v>750</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>495</v>
+      <c r="B252" s="2" t="s">
+        <v>1150</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>904</v>
+        <v>751</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>905</v>
+        <v>752</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>906</v>
+        <v>753</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>907</v>
+      <c r="B253" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>908</v>
+        <v>754</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>909</v>
+        <v>755</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>910</v>
+        <v>756</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="2">
-        <v>23683</v>
+      <c r="B254" s="2" t="s">
+        <v>1152</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>911</v>
+        <v>757</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>912</v>
+        <v>758</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>913</v>
+        <v>759</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="2">
-        <v>17808</v>
+      <c r="B255" s="2" t="s">
+        <v>1153</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>914</v>
+        <v>760</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>915</v>
+        <v>761</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>916</v>
+        <v>762</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="2">
-        <v>26787</v>
+      <c r="B256" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>917</v>
+        <v>763</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>918</v>
+        <v>764</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>919</v>
+        <v>765</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>920</v>
+      <c r="B257" s="2" t="s">
+        <v>1155</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>921</v>
+        <v>766</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>922</v>
+        <v>767</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>923</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="2">
-        <v>18691</v>
+      <c r="B258" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>924</v>
+        <v>769</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>925</v>
+        <v>770</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>926</v>
+        <v>771</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>927</v>
+      <c r="B259" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>928</v>
+        <v>772</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>929</v>
+        <v>773</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>930</v>
+        <v>774</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>931</v>
+      <c r="B260" s="2" t="s">
+        <v>1158</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>932</v>
+        <v>775</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>933</v>
+        <v>776</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>934</v>
+        <v>777</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="2">
-        <v>35684</v>
+      <c r="B261" s="2" t="s">
+        <v>1159</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>935</v>
+        <v>778</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>936</v>
+        <v>779</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>937</v>
+        <v>780</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>938</v>
+      <c r="B262" s="2" t="s">
+        <v>1160</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>939</v>
+        <v>781</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>940</v>
+        <v>782</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>941</v>
+        <v>783</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>942</v>
+      <c r="B263" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>943</v>
+        <v>784</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>944</v>
+        <v>785</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>945</v>
+        <v>786</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="2">
-        <v>28644</v>
+      <c r="B264" s="2" t="s">
+        <v>1162</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>946</v>
+        <v>787</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>947</v>
+        <v>788</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>948</v>
+        <v>789</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>949</v>
+      <c r="B265" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>950</v>
+        <v>790</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>951</v>
+        <v>791</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>952</v>
+        <v>792</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>953</v>
+      <c r="B266" s="2" t="s">
+        <v>1164</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>954</v>
+        <v>793</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>955</v>
+        <v>794</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>956</v>
+        <v>795</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>957</v>
+      <c r="B267" s="2" t="s">
+        <v>1165</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>958</v>
+        <v>796</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>959</v>
+        <v>797</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>960</v>
+        <v>798</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="2">
-        <v>31473</v>
+      <c r="B268" s="2" t="s">
+        <v>1166</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>961</v>
+        <v>799</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>962</v>
+        <v>800</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>963</v>
+        <v>801</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="2">
-        <v>16410</v>
+      <c r="B269" s="2" t="s">
+        <v>1167</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>964</v>
+        <v>802</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>965</v>
+        <v>803</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>966</v>
+        <v>804</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>967</v>
+      <c r="B270" s="2" t="s">
+        <v>1168</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>968</v>
+        <v>805</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>969</v>
+        <v>806</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>970</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="2">
-        <v>24177</v>
+      <c r="B271" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>971</v>
+        <v>808</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>972</v>
+        <v>809</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>973</v>
+        <v>810</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>974</v>
+      <c r="B272" s="2" t="s">
+        <v>1170</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>975</v>
+        <v>811</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>976</v>
+        <v>812</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>977</v>
+        <v>813</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>978</v>
+      <c r="B273" s="2" t="s">
+        <v>1171</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>979</v>
+        <v>814</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>980</v>
+        <v>815</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>981</v>
+        <v>816</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>982</v>
+      <c r="B274" s="2" t="s">
+        <v>1172</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>983</v>
+        <v>817</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>984</v>
+        <v>818</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>985</v>
+        <v>819</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>986</v>
+      <c r="B275" s="2" t="s">
+        <v>1173</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>987</v>
+        <v>820</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>988</v>
+        <v>821</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>989</v>
+        <v>822</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>990</v>
+      <c r="B276" s="2" t="s">
+        <v>1174</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>991</v>
+        <v>823</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>992</v>
+        <v>824</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>993</v>
+        <v>825</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>994</v>
+      <c r="B277" s="2" t="s">
+        <v>1175</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>995</v>
+        <v>826</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>996</v>
+        <v>827</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>997</v>
+        <v>828</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>998</v>
+      <c r="B278" s="2" t="s">
+        <v>1176</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>999</v>
+        <v>829</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1001</v>
+        <v>831</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>1002</v>
+      <c r="B279" s="2" t="s">
+        <v>1177</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1003</v>
+        <v>832</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1004</v>
+        <v>833</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1005</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="E280" s="1" t="s">
-        <v>1007</v>
+        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="2">
-        <v>25998</v>
+      <c r="B281" s="2" t="s">
+        <v>1179</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1008</v>
+        <v>837</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1009</v>
+        <v>838</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1010</v>
+        <v>839</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>1011</v>
+      <c r="B282" s="2" t="s">
+        <v>1180</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1012</v>
+        <v>840</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1013</v>
+        <v>841</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1014</v>
+        <v>842</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="2">
-        <v>27734</v>
+      <c r="B283" s="2" t="s">
+        <v>1181</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1015</v>
+        <v>843</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1016</v>
+        <v>844</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1017</v>
+        <v>845</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="2">
-        <v>14952</v>
+      <c r="B284" s="2" t="s">
+        <v>1182</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1018</v>
+        <v>846</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1019</v>
+        <v>847</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1020</v>
+        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="2">
-        <v>15192</v>
+      <c r="B285" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1021</v>
+        <v>849</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1022</v>
+        <v>850</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1023</v>
+        <v>851</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="2">
-        <v>17118</v>
+      <c r="B286" s="2" t="s">
+        <v>1184</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1024</v>
+        <v>852</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1025</v>
+        <v>853</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1026</v>
+        <v>854</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>1027</v>
+      <c r="B287" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1028</v>
+        <v>855</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1029</v>
+        <v>856</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1030</v>
+        <v>857</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>1031</v>
+      <c r="B288" s="2" t="s">
+        <v>1186</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1032</v>
+        <v>858</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1033</v>
+        <v>859</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1034</v>
+        <v>860</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>1035</v>
+      <c r="B289" s="2" t="s">
+        <v>1187</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1036</v>
+        <v>861</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1037</v>
+        <v>862</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1038</v>
+        <v>863</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>1039</v>
+      <c r="B290" s="2" t="s">
+        <v>1188</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1040</v>
+        <v>864</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1041</v>
+        <v>865</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1042</v>
+        <v>866</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="2">
-        <v>31566</v>
+      <c r="B291" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1043</v>
+        <v>867</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1044</v>
+        <v>868</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1045</v>
+        <v>869</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>1046</v>
+      <c r="B292" s="2" t="s">
+        <v>1190</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1047</v>
+        <v>870</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1048</v>
+        <v>871</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1049</v>
+        <v>872</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="2">
-        <v>24507</v>
+      <c r="B293" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1050</v>
+        <v>873</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1051</v>
+        <v>874</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1052</v>
+        <v>875</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>1053</v>
+      <c r="B294" s="2" t="s">
+        <v>1192</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1054</v>
+        <v>876</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1055</v>
+        <v>877</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1056</v>
+        <v>878</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>1057</v>
+      <c r="B295" s="2" t="s">
+        <v>1193</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1058</v>
+        <v>879</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1059</v>
+        <v>880</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1060</v>
+        <v>881</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
-        <v>25911</v>
+      <c r="B296" s="2" t="s">
+        <v>1194</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1061</v>
+        <v>882</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1062</v>
+        <v>883</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1063</v>
+        <v>884</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="2">
-        <v>34799</v>
+      <c r="B297" s="2" t="s">
+        <v>1195</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1064</v>
+        <v>885</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1065</v>
+        <v>886</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1066</v>
+        <v>887</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="2">
-        <v>34339</v>
+      <c r="B298" s="2" t="s">
+        <v>1196</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1067</v>
+        <v>888</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1068</v>
+        <v>889</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1069</v>
+        <v>890</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>1070</v>
+      <c r="B299" s="2" t="s">
+        <v>1197</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1071</v>
+        <v>891</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1072</v>
+        <v>892</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1073</v>
+        <v>893</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>1074</v>
+      <c r="B300" s="2" t="s">
+        <v>1198</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1075</v>
+        <v>894</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1076</v>
+        <v>895</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>637</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="2">
-        <v>22007</v>
+      <c r="B301" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1077</v>
+        <v>896</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1078</v>
+        <v>897</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1079</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
